--- a/storage/csv_files/global_candidates.xlsx
+++ b/storage/csv_files/global_candidates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>sn</t>
   </si>
@@ -187,6 +187,57 @@
   </si>
   <si>
     <t>1000 Rupaya</t>
+  </si>
+  <si>
+    <t>Parijaat</t>
+  </si>
+  <si>
+    <t>Pasang Lhamu Sherpa</t>
+  </si>
+  <si>
+    <t>Sushila Karki</t>
+  </si>
+  <si>
+    <t>Himani Shaha</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Kapardi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cricket </t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Elephant Polo</t>
+  </si>
+  <si>
+    <t>Karnali River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahakali River </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koshi River </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narayani River </t>
+  </si>
+  <si>
+    <t>Volleyball</t>
+  </si>
+  <si>
+    <t>1 Rupaya Coin</t>
+  </si>
+  <si>
+    <t>Afria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapta Gandki River </t>
   </si>
 </sst>
 </file>
@@ -670,8 +721,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -993,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1099,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C43" si="0">"nrna"&amp;IF($A2&lt;10,"_0","_")&amp;$A2</f>
+        <f t="shared" ref="C2:C59" si="0">"nrna"&amp;IF($A2&lt;10,"_0","_")&amp;$A2</f>
         <v>nrna_01</v>
       </c>
       <c r="D2" t="str">
@@ -1089,7 +1143,7 @@
         <v>12345678</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G43" si="2">"nrna"&amp;IF($A3&lt;10,"_0","_"&amp;"")&amp;$A3</f>
+        <f t="shared" ref="G3:G59" si="2">"nrna"&amp;IF($A3&lt;10,"_0","_"&amp;"")&amp;$A3</f>
         <v>nrna_02</v>
       </c>
       <c r="H3">
@@ -1098,7 +1152,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A43" si="3">A3+1</f>
+        <f t="shared" ref="A4:A59" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2159,7 +2213,7 @@
         <v>nrna_38</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" ref="D39:D43" si="7">"test"&amp;A39&amp;"@test.de"</f>
+        <f t="shared" ref="D39:D58" si="7">"test"&amp;A39&amp;"@test.de"</f>
         <v>test38@test.de</v>
       </c>
       <c r="E39" t="s">
@@ -2296,7 +2350,488 @@
         <v>0</v>
       </c>
     </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_43</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="7"/>
+        <v>test43@test.de</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>12345694</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_43</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_44</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="7"/>
+        <v>test44@test.de</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>12345695</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_44</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_45</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="7"/>
+        <v>test45@test.de</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>12345696</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_45</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_46</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="7"/>
+        <v>test46@test.de</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>12345697</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_46</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_47</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="7"/>
+        <v>test47@test.de</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>12345698</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_47</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_48</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="7"/>
+        <v>test48@test.de</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>12345699</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_48</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_49</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="7"/>
+        <v>test49@test.de</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>12345700</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_49</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_50</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="7"/>
+        <v>test50@test.de</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>12345701</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_50</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_51</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="7"/>
+        <v>test51@test.de</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>12345702</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_51</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_52</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="7"/>
+        <v>test52@test.de</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>12345703</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_52</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_53</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="7"/>
+        <v>test53@test.de</v>
+      </c>
+      <c r="E54" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54">
+        <v>12345703</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_53</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_54</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="7"/>
+        <v>test54@test.de</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>12345703</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_54</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_55</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="7"/>
+        <v>test55@test.de</v>
+      </c>
+      <c r="E56" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56">
+        <v>12345703</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_55</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_56</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="7"/>
+        <v>test56@test.de</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>12345703</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_56</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_57</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="7"/>
+        <v>test57@test.de</v>
+      </c>
+      <c r="E58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58">
+        <v>12345703</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_57</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_58</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" ref="D59" si="8">"test"&amp;A59&amp;"@test.de"</f>
+        <v>test58@test.de</v>
+      </c>
+      <c r="E59" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59">
+        <v>12345703</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_58</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/csv_files/global_candidates.xlsx
+++ b/storage/csv_files/global_candidates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="110">
   <si>
     <t>sn</t>
   </si>
@@ -238,6 +238,117 @@
   </si>
   <si>
     <t xml:space="preserve">Sapta Gandki River </t>
+  </si>
+  <si>
+    <t>One and Half Mohar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moti Ram Bhatta </t>
+  </si>
+  <si>
+    <t>Laxmi Prasad Devkota</t>
+  </si>
+  <si>
+    <t>Bhanu Bhakta Acharya</t>
+  </si>
+  <si>
+    <t>Bhupi Sherchan</t>
+  </si>
+  <si>
+    <t>Satya Mohan Joshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melina Rai </t>
+  </si>
+  <si>
+    <t>Anamol KC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jitu Nepal </t>
+  </si>
+  <si>
+    <t>Priyanka Karki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swastima Khadka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaurika Singh </t>
+  </si>
+  <si>
+    <t>Dipashree Niraula</t>
+  </si>
+  <si>
+    <t>Rekha Thapa</t>
+  </si>
+  <si>
+    <t>Rajesh Hamal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karishma Manandhar </t>
+  </si>
+  <si>
+    <t>Seweta Khadka</t>
+  </si>
+  <si>
+    <t>Shiva Shrestha</t>
+  </si>
+  <si>
+    <t>Manisha Koirala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dayaram Rai </t>
+  </si>
+  <si>
+    <t>Bhuwan KC</t>
+  </si>
+  <si>
+    <t>Jhamak Ghimire</t>
+  </si>
+  <si>
+    <t>Bhagwan Koirala</t>
+  </si>
+  <si>
+    <t>Sanduk Ruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobinda KC </t>
+  </si>
+  <si>
+    <t>Puspa Basnet</t>
+  </si>
+  <si>
+    <t>Anuradha Koirala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahabir Pun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narayan Gopal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kali Prasad Baskota </t>
+  </si>
+  <si>
+    <t>Anju Panta</t>
+  </si>
+  <si>
+    <t>Bhakta Raj Acharya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bishnu Majhi </t>
+  </si>
+  <si>
+    <t>Ani Choying Drolma</t>
+  </si>
+  <si>
+    <t>Nisha Adhikari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dilip Rayamajhi </t>
+  </si>
+  <si>
+    <t>Dipak Raj Giri</t>
   </si>
 </sst>
 </file>
@@ -1047,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G59"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1210,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C59" si="0">"nrna"&amp;IF($A2&lt;10,"_0","_")&amp;$A2</f>
+        <f t="shared" ref="C2:C66" si="0">"nrna"&amp;IF($A2&lt;10,"_0","_")&amp;$A2</f>
         <v>nrna_01</v>
       </c>
       <c r="D2" t="str">
@@ -1143,7 +1254,7 @@
         <v>12345678</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G59" si="2">"nrna"&amp;IF($A3&lt;10,"_0","_"&amp;"")&amp;$A3</f>
+        <f t="shared" ref="G3:G66" si="2">"nrna"&amp;IF($A3&lt;10,"_0","_"&amp;"")&amp;$A3</f>
         <v>nrna_02</v>
       </c>
       <c r="H3">
@@ -1152,7 +1263,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A59" si="3">A3+1</f>
+        <f t="shared" ref="A4:A67" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2787,7 +2898,7 @@
         <v>test57@test.de</v>
       </c>
       <c r="E58" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="F58">
         <v>12345703</v>
@@ -2828,6 +2939,1144 @@
       </c>
       <c r="H59">
         <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_59</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" ref="D60:D61" si="9">"test"&amp;A60&amp;"@test.de"</f>
+        <v>test59@test.de</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60">
+        <v>12345703</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_59</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_60</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="9"/>
+        <v>test60@test.de</v>
+      </c>
+      <c r="E61" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61">
+        <v>12345703</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_60</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_61</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" ref="D62:D65" si="10">"test"&amp;A62&amp;"@test.de"</f>
+        <v>test61@test.de</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62">
+        <v>12345703</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_61</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_62</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="10"/>
+        <v>test62@test.de</v>
+      </c>
+      <c r="E63" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63">
+        <v>12345703</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_62</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_63</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="10"/>
+        <v>test63@test.de</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>12345703</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_63</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_64</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="10"/>
+        <v>test64@test.de</v>
+      </c>
+      <c r="E65" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65">
+        <v>12345703</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_64</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_65</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" ref="D66:D71" si="11">"test"&amp;A66&amp;"@test.de"</f>
+        <v>test65@test.de</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>12345703</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="2"/>
+        <v>nrna_65</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C97" si="12">"nrna"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
+        <v>nrna_66</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="11"/>
+        <v>test66@test.de</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67">
+        <v>12345703</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G97" si="13">"nrna"&amp;IF($A67&lt;10,"_0","_"&amp;"")&amp;$A67</f>
+        <v>nrna_66</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ref="A68:A97" si="14">A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_67</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="11"/>
+        <v>test67@test.de</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68">
+        <v>12345703</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_67</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="14"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_68</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="11"/>
+        <v>test68@test.de</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69">
+        <v>12345703</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_68</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="14"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_69</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="11"/>
+        <v>test69@test.de</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70">
+        <v>12345703</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_69</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_70</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="11"/>
+        <v>test70@test.de</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <v>12345703</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_70</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="14"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_71</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" ref="D72:D80" si="15">"test"&amp;A72&amp;"@test.de"</f>
+        <v>test71@test.de</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72">
+        <v>12345703</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_71</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_72</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="15"/>
+        <v>test72@test.de</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73">
+        <v>12345703</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_72</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="14"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_73</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="15"/>
+        <v>test73@test.de</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74">
+        <v>12345703</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_73</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_74</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="15"/>
+        <v>test74@test.de</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75">
+        <v>12345703</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_74</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_75</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="15"/>
+        <v>test75@test.de</v>
+      </c>
+      <c r="E76" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76">
+        <v>12345703</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_75</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_76</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="15"/>
+        <v>test76@test.de</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77">
+        <v>12345703</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_76</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="14"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_77</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="15"/>
+        <v>test77@test.de</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78">
+        <v>12345703</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_77</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="14"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_78</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="15"/>
+        <v>test78@test.de</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79">
+        <v>12345703</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_78</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="14"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_79</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="15"/>
+        <v>test79@test.de</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80">
+        <v>12345703</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_79</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_80</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" ref="D81:D93" si="16">"test"&amp;A81&amp;"@test.de"</f>
+        <v>test80@test.de</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81">
+        <v>12345703</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_80</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="14"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_81</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="16"/>
+        <v>test81@test.de</v>
+      </c>
+      <c r="E82" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82">
+        <v>12345703</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_81</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="14"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_82</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="16"/>
+        <v>test82@test.de</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83">
+        <v>12345703</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_82</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="14"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_83</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="16"/>
+        <v>test83@test.de</v>
+      </c>
+      <c r="E84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84">
+        <v>12345703</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_83</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="14"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_84</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="16"/>
+        <v>test84@test.de</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85">
+        <v>12345703</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_84</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="14"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_85</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="16"/>
+        <v>test85@test.de</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86">
+        <v>12345703</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_85</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="14"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_86</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="16"/>
+        <v>test86@test.de</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87">
+        <v>12345703</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_86</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="14"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_87</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="16"/>
+        <v>test87@test.de</v>
+      </c>
+      <c r="E88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88">
+        <v>12345703</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_87</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_88</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="16"/>
+        <v>test88@test.de</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89">
+        <v>12345703</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_88</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="14"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_89</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="16"/>
+        <v>test89@test.de</v>
+      </c>
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90">
+        <v>12345703</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_89</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_90</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="16"/>
+        <v>test90@test.de</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91">
+        <v>12345703</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_90</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="14"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_91</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="16"/>
+        <v>test91@test.de</v>
+      </c>
+      <c r="E92" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92">
+        <v>12345703</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_91</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="14"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_92</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="16"/>
+        <v>test92@test.de</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93">
+        <v>12345703</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_92</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="14"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_93</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" ref="D94:D95" si="17">"test"&amp;A94&amp;"@test.de"</f>
+        <v>test93@test.de</v>
+      </c>
+      <c r="E94" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94">
+        <v>12345703</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_93</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="14"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_94</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="17"/>
+        <v>test94@test.de</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95">
+        <v>12345703</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_94</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="14"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_95</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" ref="D96:D97" si="18">"test"&amp;A96&amp;"@test.de"</f>
+        <v>test95@test.de</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96">
+        <v>12345704</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_95</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="14"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_96</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="18"/>
+        <v>test96@test.de</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97">
+        <v>12345705</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_96</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/storage/csv_files/global_candidates.xlsx
+++ b/storage/csv_files/global_candidates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="128">
   <si>
     <t>sn</t>
   </si>
@@ -349,6 +349,60 @@
   </si>
   <si>
     <t>Dipak Raj Giri</t>
+  </si>
+  <si>
+    <t>Manoj Gajurel</t>
+  </si>
+  <si>
+    <t>Sudheer Sharma</t>
+  </si>
+  <si>
+    <t>Amit Dhakal</t>
+  </si>
+  <si>
+    <t>Kishor Shrestha</t>
+  </si>
+  <si>
+    <t>Bidyaa Chapagai</t>
+  </si>
+  <si>
+    <t>Suman Kharel</t>
+  </si>
+  <si>
+    <t>Bijaya Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kedar Ghimire </t>
+  </si>
+  <si>
+    <t>Madan Krishna Shrestha</t>
+  </si>
+  <si>
+    <t>Hari Bansa Acharya</t>
+  </si>
+  <si>
+    <t>Wilson Bikram Rai</t>
+  </si>
+  <si>
+    <t>Sitaram Kattel</t>
+  </si>
+  <si>
+    <t>Pasupati Sharma</t>
+  </si>
+  <si>
+    <t>Rajesh Payal Rai</t>
+  </si>
+  <si>
+    <t>Shiva Pariyar</t>
+  </si>
+  <si>
+    <t>Rita Thapa Magar</t>
+  </si>
+  <si>
+    <t>Indira Joshi</t>
+  </si>
+  <si>
+    <t>Kunti Moktan</t>
   </si>
 </sst>
 </file>
@@ -1158,21 +1212,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3160,7 +3214,7 @@
         <v>80</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C97" si="12">"nrna"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
+        <f t="shared" ref="C67:C114" si="12">"nrna"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
         <v>nrna_66</v>
       </c>
       <c r="D67" t="str">
@@ -3174,7 +3228,7 @@
         <v>12345703</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G97" si="13">"nrna"&amp;IF($A67&lt;10,"_0","_"&amp;"")&amp;$A67</f>
+        <f t="shared" ref="G67:G114" si="13">"nrna"&amp;IF($A67&lt;10,"_0","_"&amp;"")&amp;$A67</f>
         <v>nrna_66</v>
       </c>
       <c r="H67">
@@ -3183,7 +3237,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A97" si="14">A67+1</f>
+        <f t="shared" ref="A68:A114" si="14">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -3314,7 +3368,7 @@
         <v>nrna_71</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" ref="D72:D80" si="15">"test"&amp;A72&amp;"@test.de"</f>
+        <f t="shared" ref="D72:D114" si="15">"test"&amp;A72&amp;"@test.de"</f>
         <v>test71@test.de</v>
       </c>
       <c r="E72" t="s">
@@ -3584,7 +3638,7 @@
         <v>nrna_80</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" ref="D81:D93" si="16">"test"&amp;A81&amp;"@test.de"</f>
+        <f t="shared" si="15"/>
         <v>test80@test.de</v>
       </c>
       <c r="E81" t="s">
@@ -3614,7 +3668,7 @@
         <v>nrna_81</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>test81@test.de</v>
       </c>
       <c r="E82" t="s">
@@ -3644,7 +3698,7 @@
         <v>nrna_82</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>test82@test.de</v>
       </c>
       <c r="E83" t="s">
@@ -3674,7 +3728,7 @@
         <v>nrna_83</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>test83@test.de</v>
       </c>
       <c r="E84" t="s">
@@ -3704,7 +3758,7 @@
         <v>nrna_84</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>test84@test.de</v>
       </c>
       <c r="E85" t="s">
@@ -3734,7 +3788,7 @@
         <v>nrna_85</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>test85@test.de</v>
       </c>
       <c r="E86" t="s">
@@ -3764,7 +3818,7 @@
         <v>nrna_86</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>test86@test.de</v>
       </c>
       <c r="E87" t="s">
@@ -3794,7 +3848,7 @@
         <v>nrna_87</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>test87@test.de</v>
       </c>
       <c r="E88" t="s">
@@ -3824,7 +3878,7 @@
         <v>nrna_88</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>test88@test.de</v>
       </c>
       <c r="E89" t="s">
@@ -3854,7 +3908,7 @@
         <v>nrna_89</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>test89@test.de</v>
       </c>
       <c r="E90" t="s">
@@ -3884,7 +3938,7 @@
         <v>nrna_90</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>test90@test.de</v>
       </c>
       <c r="E91" t="s">
@@ -3914,7 +3968,7 @@
         <v>nrna_91</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>test91@test.de</v>
       </c>
       <c r="E92" t="s">
@@ -3944,7 +3998,7 @@
         <v>nrna_92</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>test92@test.de</v>
       </c>
       <c r="E93" t="s">
@@ -3974,7 +4028,7 @@
         <v>nrna_93</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" ref="D94:D95" si="17">"test"&amp;A94&amp;"@test.de"</f>
+        <f t="shared" si="15"/>
         <v>test93@test.de</v>
       </c>
       <c r="E94" t="s">
@@ -4004,7 +4058,7 @@
         <v>nrna_94</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>test94@test.de</v>
       </c>
       <c r="E95" t="s">
@@ -4034,21 +4088,21 @@
         <v>nrna_95</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" ref="D96:D97" si="18">"test"&amp;A96&amp;"@test.de"</f>
+        <f t="shared" si="15"/>
         <v>test95@test.de</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F96">
-        <v>12345704</v>
+        <v>12345703</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="13"/>
         <v>nrna_95</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4056,27 +4110,539 @@
         <f t="shared" si="14"/>
         <v>96</v>
       </c>
-      <c r="B97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C97" t="str">
         <f t="shared" si="12"/>
         <v>nrna_96</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>test96@test.de</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
       </c>
       <c r="F97">
-        <v>12345705</v>
+        <v>12345703</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="13"/>
         <v>nrna_96</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="14"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_97</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="15"/>
+        <v>test97@test.de</v>
+      </c>
+      <c r="E98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98">
+        <v>12345703</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_97</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="14"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_98</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="15"/>
+        <v>test98@test.de</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99">
+        <v>12345703</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_98</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="14"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_99</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="15"/>
+        <v>test99@test.de</v>
+      </c>
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100">
+        <v>12345703</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_99</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_100</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="15"/>
+        <v>test100@test.de</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101">
+        <v>12345703</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_100</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="14"/>
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_101</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="15"/>
+        <v>test101@test.de</v>
+      </c>
+      <c r="E102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102">
+        <v>12345703</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_101</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="14"/>
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_102</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="15"/>
+        <v>test102@test.de</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103">
+        <v>12345703</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_102</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="14"/>
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_103</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="15"/>
+        <v>test103@test.de</v>
+      </c>
+      <c r="E104" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104">
+        <v>12345703</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_103</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="14"/>
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_104</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="15"/>
+        <v>test104@test.de</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105">
+        <v>12345703</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_104</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_105</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="15"/>
+        <v>test105@test.de</v>
+      </c>
+      <c r="E106" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106">
+        <v>12345703</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_105</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="14"/>
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_106</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="15"/>
+        <v>test106@test.de</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107">
+        <v>12345703</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_106</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="14"/>
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_107</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="15"/>
+        <v>test107@test.de</v>
+      </c>
+      <c r="E108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108">
+        <v>12345703</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_107</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="14"/>
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_108</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="15"/>
+        <v>test108@test.de</v>
+      </c>
+      <c r="E109" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109">
+        <v>12345703</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_108</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="14"/>
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_109</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="15"/>
+        <v>test109@test.de</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110">
+        <v>12345703</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_109</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="14"/>
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_110</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="15"/>
+        <v>test110@test.de</v>
+      </c>
+      <c r="E111" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111">
+        <v>12345703</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_110</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="14"/>
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_111</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="15"/>
+        <v>test111@test.de</v>
+      </c>
+      <c r="E112" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112">
+        <v>12345703</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_111</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="14"/>
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_112</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="15"/>
+        <v>test112@test.de</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113">
+        <v>12345703</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_112</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="14"/>
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_113</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="15"/>
+        <v>test113@test.de</v>
+      </c>
+      <c r="E114" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114">
+        <v>12345703</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_113</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/storage/csv_files/global_candidates.xlsx
+++ b/storage/csv_files/global_candidates.xlsx
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/storage/csv_files/global_candidates.xlsx
+++ b/storage/csv_files/global_candidates.xlsx
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3042,7 +3042,7 @@
         <v>test60@test.de</v>
       </c>
       <c r="E61" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="F61">
         <v>12345703</v>
@@ -3372,7 +3372,7 @@
         <v>test71@test.de</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F72">
         <v>12345703</v>
@@ -3432,7 +3432,7 @@
         <v>test73@test.de</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F74">
         <v>12345703</v>
@@ -3672,7 +3672,7 @@
         <v>test81@test.de</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F82">
         <v>12345703</v>
@@ -3852,7 +3852,7 @@
         <v>test87@test.de</v>
       </c>
       <c r="E88" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F88">
         <v>12345703</v>

--- a/storage/csv_files/global_candidates.xlsx
+++ b/storage/csv_files/global_candidates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="145">
   <si>
     <t>sn</t>
   </si>
@@ -297,9 +297,6 @@
     <t>Manisha Koirala</t>
   </si>
   <si>
-    <t xml:space="preserve">Dayaram Rai </t>
-  </si>
-  <si>
     <t>Bhuwan KC</t>
   </si>
   <si>
@@ -403,6 +400,60 @@
   </si>
   <si>
     <t>Kunti Moktan</t>
+  </si>
+  <si>
+    <t>Dayahang Rai</t>
+  </si>
+  <si>
+    <t>Bhuwan Chanda</t>
+  </si>
+  <si>
+    <t>Mithila Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandana Rana </t>
+  </si>
+  <si>
+    <t>Shrinkhala Khatiwada</t>
+  </si>
+  <si>
+    <t>Bhawani Rana</t>
+  </si>
+  <si>
+    <t>Raveena Desraj Shrestha</t>
+  </si>
+  <si>
+    <t>Ranju Darshana</t>
+  </si>
+  <si>
+    <t>Hari Devi Koirala</t>
+  </si>
+  <si>
+    <t>Yankila Sherpa</t>
+  </si>
+  <si>
+    <t>Sapana Malla Pradhan</t>
+  </si>
+  <si>
+    <t>Dr. Aruna Upreti</t>
+  </si>
+  <si>
+    <t>Babita Basnet</t>
+  </si>
+  <si>
+    <t>Ramesh Prasai</t>
+  </si>
+  <si>
+    <t>Sharada Sharma</t>
+  </si>
+  <si>
+    <t>Nirmala Panta</t>
+  </si>
+  <si>
+    <t>Phupu Lhamu Khatri</t>
+  </si>
+  <si>
+    <t>Uma Singh</t>
   </si>
 </sst>
 </file>
@@ -1212,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3214,7 +3265,7 @@
         <v>80</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C114" si="12">"nrna"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
+        <f t="shared" ref="C67:C130" si="12">"nrna"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
         <v>nrna_66</v>
       </c>
       <c r="D67" t="str">
@@ -3228,7 +3279,7 @@
         <v>12345703</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G114" si="13">"nrna"&amp;IF($A67&lt;10,"_0","_"&amp;"")&amp;$A67</f>
+        <f t="shared" ref="G67:G130" si="13">"nrna"&amp;IF($A67&lt;10,"_0","_"&amp;"")&amp;$A67</f>
         <v>nrna_66</v>
       </c>
       <c r="H67">
@@ -3237,7 +3288,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A114" si="14">A67+1</f>
+        <f t="shared" ref="A68:A131" si="14">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -3571,7 +3622,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="12"/>
@@ -3601,7 +3652,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="12"/>
@@ -3631,7 +3682,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="12"/>
@@ -3661,7 +3712,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="12"/>
@@ -3691,7 +3742,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="12"/>
@@ -3721,7 +3772,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="12"/>
@@ -3751,7 +3802,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="12"/>
@@ -3781,7 +3832,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="12"/>
@@ -3811,7 +3862,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="12"/>
@@ -3841,7 +3892,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="12"/>
@@ -3871,7 +3922,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="12"/>
@@ -3901,7 +3952,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="12"/>
@@ -3931,7 +3982,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="12"/>
@@ -3961,7 +4012,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="12"/>
@@ -3991,7 +4042,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="12"/>
@@ -4021,7 +4072,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="12"/>
@@ -4051,7 +4102,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="12"/>
@@ -4081,7 +4132,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="12"/>
@@ -4111,7 +4162,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="12"/>
@@ -4141,7 +4192,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="12"/>
@@ -4171,7 +4222,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="12"/>
@@ -4201,7 +4252,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="12"/>
@@ -4231,7 +4282,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="12"/>
@@ -4261,7 +4312,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="12"/>
@@ -4291,7 +4342,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="12"/>
@@ -4321,7 +4372,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="12"/>
@@ -4351,7 +4402,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="12"/>
@@ -4381,7 +4432,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="12"/>
@@ -4411,7 +4462,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="12"/>
@@ -4441,7 +4492,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="12"/>
@@ -4471,7 +4522,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="12"/>
@@ -4501,7 +4552,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="12"/>
@@ -4531,7 +4582,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="12"/>
@@ -4561,7 +4612,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="12"/>
@@ -4591,7 +4642,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="12"/>
@@ -4621,7 +4672,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="12"/>
@@ -4642,6 +4693,516 @@
         <v>nrna_113</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="14"/>
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_114</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" ref="D115:D124" si="16">"test"&amp;A115&amp;"@test.de"</f>
+        <v>test114@test.de</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115">
+        <v>12345703</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_114</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="14"/>
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_115</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="16"/>
+        <v>test115@test.de</v>
+      </c>
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116">
+        <v>12345703</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_115</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="14"/>
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_116</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="16"/>
+        <v>test116@test.de</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117">
+        <v>12345703</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_116</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="14"/>
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_117</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="16"/>
+        <v>test117@test.de</v>
+      </c>
+      <c r="E118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118">
+        <v>12345703</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_117</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="14"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_118</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="16"/>
+        <v>test118@test.de</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119">
+        <v>12345703</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_118</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="14"/>
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_119</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="16"/>
+        <v>test119@test.de</v>
+      </c>
+      <c r="E120" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120">
+        <v>12345703</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_119</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_120</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="16"/>
+        <v>test120@test.de</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121">
+        <v>12345703</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_120</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="14"/>
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_121</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="16"/>
+        <v>test121@test.de</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122">
+        <v>12345703</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_121</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="14"/>
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_122</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="16"/>
+        <v>test122@test.de</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123">
+        <v>12345703</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_122</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="14"/>
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_123</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="16"/>
+        <v>test123@test.de</v>
+      </c>
+      <c r="E124" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124">
+        <v>12345703</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_123</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="14"/>
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_124</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" ref="D125:D132" si="17">"test"&amp;A125&amp;"@test.de"</f>
+        <v>test124@test.de</v>
+      </c>
+      <c r="E125" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125">
+        <v>12345703</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_124</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="14"/>
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_125</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="17"/>
+        <v>test125@test.de</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126">
+        <v>12345703</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_125</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="14"/>
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_126</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="17"/>
+        <v>test126@test.de</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127">
+        <v>12345703</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_126</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="14"/>
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_127</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="17"/>
+        <v>test127@test.de</v>
+      </c>
+      <c r="E128" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128">
+        <v>12345703</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_127</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="14"/>
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_128</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="17"/>
+        <v>test128@test.de</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129">
+        <v>12345703</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_128</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="14"/>
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>142</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_129</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="17"/>
+        <v>test129@test.de</v>
+      </c>
+      <c r="E130" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130">
+        <v>12345703</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="13"/>
+        <v>nrna_129</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="14"/>
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>144</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" ref="C131:C132" si="18">"nrna"&amp;IF($A131&lt;10,"_0","_")&amp;$A131</f>
+        <v>nrna_130</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="17"/>
+        <v>test130@test.de</v>
+      </c>
+      <c r="E131" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131">
+        <v>12345703</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" ref="G131:G132" si="19">"nrna"&amp;IF($A131&lt;10,"_0","_"&amp;"")&amp;$A131</f>
+        <v>nrna_130</v>
+      </c>
+      <c r="H131">
         <v>0</v>
       </c>
     </row>

--- a/storage/csv_files/global_candidates.xlsx
+++ b/storage/csv_files/global_candidates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="158">
   <si>
     <t>sn</t>
   </si>
@@ -454,6 +454,45 @@
   </si>
   <si>
     <t>Uma Singh</t>
+  </si>
+  <si>
+    <t>Prithvi Narayan Shah</t>
+  </si>
+  <si>
+    <t>Araniko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Janak </t>
+  </si>
+  <si>
+    <t>Upendra Mahato</t>
+  </si>
+  <si>
+    <t>Dev Man Hirachan</t>
+  </si>
+  <si>
+    <t>Jiba Lamichhane</t>
+  </si>
+  <si>
+    <t>Shesh Ghale</t>
+  </si>
+  <si>
+    <t>Bhawan Bhatta</t>
+  </si>
+  <si>
+    <t>Kumar Panta</t>
+  </si>
+  <si>
+    <t>Ram Pratap Thapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princes Bhrikuti </t>
+  </si>
+  <si>
+    <t>Siddhi Charan Shrestha</t>
+  </si>
+  <si>
+    <t>Madhav Prasad Ghimire</t>
   </si>
 </sst>
 </file>
@@ -1263,17 +1302,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1286,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1311,12 +1350,12 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B66" si="0">"nrna"&amp;IF($A2&lt;10,"_0","_")&amp;$A2</f>
+        <v>nrna_01</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C66" si="0">"nrna"&amp;IF($A2&lt;10,"_0","_")&amp;$A2</f>
-        <v>nrna_01</v>
       </c>
       <c r="D2" t="str">
         <f>"test"&amp;A2&amp;"@test.de"</f>
@@ -1341,12 +1380,12 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_02</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_02</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D28" si="1">"test"&amp;A3&amp;"@test.de"</f>
@@ -1371,12 +1410,12 @@
         <f t="shared" ref="A4:A67" si="3">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_03</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_03</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="1"/>
@@ -1401,12 +1440,12 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_04</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_04</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="1"/>
@@ -1431,12 +1470,12 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_05</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_05</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="1"/>
@@ -1461,12 +1500,12 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_06</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_06</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
@@ -1491,12 +1530,12 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_07</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_07</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
@@ -1521,12 +1560,12 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_08</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_08</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
@@ -1551,12 +1590,12 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_09</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_09</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
@@ -1581,12 +1620,12 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_10</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_10</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
@@ -1611,12 +1650,12 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_11</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_11</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
@@ -1641,12 +1680,12 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_12</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_12</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
@@ -1671,12 +1710,12 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_13</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_13</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
@@ -1701,12 +1740,12 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_14</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_14</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
@@ -1731,12 +1770,12 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_15</v>
+      </c>
+      <c r="C16" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_15</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
@@ -1761,12 +1800,12 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_16</v>
+      </c>
+      <c r="C17" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_16</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
@@ -1791,12 +1830,12 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_17</v>
+      </c>
+      <c r="C18" t="s">
         <v>30</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_17</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
@@ -1821,12 +1860,12 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_18</v>
+      </c>
+      <c r="C19" t="s">
         <v>31</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_18</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
@@ -1851,12 +1890,12 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_19</v>
+      </c>
+      <c r="C20" t="s">
         <v>32</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_19</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
@@ -1881,12 +1920,12 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_20</v>
+      </c>
+      <c r="C21" t="s">
         <v>33</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_20</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
@@ -1911,12 +1950,12 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_21</v>
+      </c>
+      <c r="C22" t="s">
         <v>34</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_21</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
@@ -1941,12 +1980,12 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_22</v>
+      </c>
+      <c r="C23" t="s">
         <v>35</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_22</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -1971,12 +2010,12 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_23</v>
+      </c>
+      <c r="C24" t="s">
         <v>36</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_23</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
@@ -2001,12 +2040,12 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_24</v>
+      </c>
+      <c r="C25" t="s">
         <v>37</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_24</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
@@ -2031,12 +2070,12 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_25</v>
+      </c>
+      <c r="C26" t="s">
         <v>38</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_25</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -2061,12 +2100,12 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_26</v>
+      </c>
+      <c r="C27" t="s">
         <v>39</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_26</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
@@ -2091,12 +2130,12 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_27</v>
+      </c>
+      <c r="C28" t="s">
         <v>40</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_27</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
@@ -2121,12 +2160,12 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_28</v>
+      </c>
+      <c r="C29" t="s">
         <v>41</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_28</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" ref="D29" si="4">"test"&amp;A29&amp;"@test.de"</f>
@@ -2151,12 +2190,12 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_29</v>
+      </c>
+      <c r="C30" t="s">
         <v>42</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_29</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" ref="D30:D33" si="5">"test"&amp;A30&amp;"@test.de"</f>
@@ -2181,12 +2220,12 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_30</v>
+      </c>
+      <c r="C31" t="s">
         <v>43</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_30</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="5"/>
@@ -2211,12 +2250,12 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_31</v>
+      </c>
+      <c r="C32" t="s">
         <v>44</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_31</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="5"/>
@@ -2241,12 +2280,12 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_32</v>
+      </c>
+      <c r="C33" t="s">
         <v>45</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_32</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="5"/>
@@ -2271,12 +2310,12 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_33</v>
+      </c>
+      <c r="C34" t="s">
         <v>46</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_33</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ref="D34:D38" si="6">"test"&amp;A34&amp;"@test.de"</f>
@@ -2301,12 +2340,12 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_34</v>
+      </c>
+      <c r="C35" t="s">
         <v>52</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_34</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="6"/>
@@ -2331,12 +2370,12 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_35</v>
+      </c>
+      <c r="C36" t="s">
         <v>53</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_35</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="6"/>
@@ -2361,12 +2400,12 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_36</v>
+      </c>
+      <c r="C37" t="s">
         <v>54</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_36</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="6"/>
@@ -2391,12 +2430,12 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_37</v>
+      </c>
+      <c r="C38" t="s">
         <v>55</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_37</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="6"/>
@@ -2421,12 +2460,12 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_38</v>
+      </c>
+      <c r="C39" t="s">
         <v>47</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_38</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ref="D39:D58" si="7">"test"&amp;A39&amp;"@test.de"</f>
@@ -2451,12 +2490,12 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_39</v>
+      </c>
+      <c r="C40" t="s">
         <v>48</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_39</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="7"/>
@@ -2481,12 +2520,12 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_40</v>
+      </c>
+      <c r="C41" t="s">
         <v>49</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_40</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="7"/>
@@ -2511,12 +2550,12 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_41</v>
+      </c>
+      <c r="C42" t="s">
         <v>50</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_41</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="7"/>
@@ -2541,12 +2580,12 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_42</v>
+      </c>
+      <c r="C43" t="s">
         <v>51</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_42</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="7"/>
@@ -2571,12 +2610,12 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_43</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_43</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="7"/>
@@ -2601,12 +2640,12 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_44</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_44</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="7"/>
@@ -2631,12 +2670,12 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_45</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_45</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="7"/>
@@ -2661,12 +2700,12 @@
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_46</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_46</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="7"/>
@@ -2691,12 +2730,12 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_47</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_47</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="7"/>
@@ -2721,12 +2760,12 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_48</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_48</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="7"/>
@@ -2751,12 +2790,12 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_49</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_49</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="7"/>
@@ -2781,12 +2820,12 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_50</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_50</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="7"/>
@@ -2811,12 +2850,12 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_51</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_51</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="7"/>
@@ -2841,12 +2880,12 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_52</v>
+      </c>
+      <c r="C53" t="s">
         <v>69</v>
-      </c>
-      <c r="C53" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_52</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="7"/>
@@ -2871,12 +2910,12 @@
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_53</v>
+      </c>
+      <c r="C54" t="s">
         <v>70</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_53</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="7"/>
@@ -2901,12 +2940,12 @@
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_54</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C55" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_54</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="7"/>
@@ -2931,12 +2970,12 @@
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_55</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C56" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_55</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="7"/>
@@ -2961,12 +3000,12 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_56</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C57" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_56</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="7"/>
@@ -2991,12 +3030,12 @@
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_57</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C58" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_57</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="7"/>
@@ -3021,12 +3060,12 @@
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_58</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C59" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_58</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" ref="D59" si="8">"test"&amp;A59&amp;"@test.de"</f>
@@ -3051,12 +3090,12 @@
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_59</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C60" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_59</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" ref="D60:D61" si="9">"test"&amp;A60&amp;"@test.de"</f>
@@ -3081,12 +3120,12 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_60</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C61" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_60</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="9"/>
@@ -3111,12 +3150,12 @@
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_61</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C62" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_61</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" ref="D62:D65" si="10">"test"&amp;A62&amp;"@test.de"</f>
@@ -3141,12 +3180,12 @@
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_62</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C63" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_62</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="10"/>
@@ -3171,12 +3210,12 @@
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_63</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C64" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_63</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="10"/>
@@ -3201,12 +3240,12 @@
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_64</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C65" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_64</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="10"/>
@@ -3231,12 +3270,12 @@
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>nrna_65</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C66" t="str">
-        <f t="shared" si="0"/>
-        <v>nrna_65</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" ref="D66:D71" si="11">"test"&amp;A66&amp;"@test.de"</f>
@@ -3261,12 +3300,12 @@
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B130" si="12">"nrna"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
+        <v>nrna_66</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C67" t="str">
-        <f t="shared" ref="C67:C130" si="12">"nrna"&amp;IF($A67&lt;10,"_0","_")&amp;$A67</f>
-        <v>nrna_66</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="11"/>
@@ -3288,15 +3327,15 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A131" si="14">A67+1</f>
+        <f t="shared" ref="A68:A132" si="14">A67+1</f>
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_67</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C68" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_67</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="11"/>
@@ -3321,12 +3360,12 @@
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_68</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C69" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_68</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="11"/>
@@ -3351,12 +3390,12 @@
         <f t="shared" si="14"/>
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_69</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C70" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_69</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="11"/>
@@ -3381,12 +3420,12 @@
         <f t="shared" si="14"/>
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_70</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C71" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_70</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="11"/>
@@ -3411,12 +3450,12 @@
         <f t="shared" si="14"/>
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_71</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C72" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_71</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" ref="D72:D114" si="15">"test"&amp;A72&amp;"@test.de"</f>
@@ -3441,12 +3480,12 @@
         <f t="shared" si="14"/>
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_72</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C73" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_72</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="15"/>
@@ -3471,12 +3510,12 @@
         <f t="shared" si="14"/>
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_73</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C74" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_73</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="15"/>
@@ -3501,12 +3540,12 @@
         <f t="shared" si="14"/>
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_74</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C75" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_74</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="15"/>
@@ -3531,12 +3570,12 @@
         <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_75</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C76" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_75</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="15"/>
@@ -3561,12 +3600,12 @@
         <f t="shared" si="14"/>
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_76</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C77" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_76</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="15"/>
@@ -3591,12 +3630,12 @@
         <f t="shared" si="14"/>
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_77</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C78" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_77</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="15"/>
@@ -3621,12 +3660,12 @@
         <f t="shared" si="14"/>
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_78</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C79" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_78</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="15"/>
@@ -3651,12 +3690,12 @@
         <f t="shared" si="14"/>
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_79</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C80" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_79</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="15"/>
@@ -3681,12 +3720,12 @@
         <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_80</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C81" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_80</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="15"/>
@@ -3711,12 +3750,12 @@
         <f t="shared" si="14"/>
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_81</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C82" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_81</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="15"/>
@@ -3741,12 +3780,12 @@
         <f t="shared" si="14"/>
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_82</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C83" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_82</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="15"/>
@@ -3771,12 +3810,12 @@
         <f t="shared" si="14"/>
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_83</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C84" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_83</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="15"/>
@@ -3801,12 +3840,12 @@
         <f t="shared" si="14"/>
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_84</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C85" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_84</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="15"/>
@@ -3831,12 +3870,12 @@
         <f t="shared" si="14"/>
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_85</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C86" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_85</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="15"/>
@@ -3861,12 +3900,12 @@
         <f t="shared" si="14"/>
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_86</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C87" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_86</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="15"/>
@@ -3891,12 +3930,12 @@
         <f t="shared" si="14"/>
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_87</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C88" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_87</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="15"/>
@@ -3921,12 +3960,12 @@
         <f t="shared" si="14"/>
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_88</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C89" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_88</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="15"/>
@@ -3951,12 +3990,12 @@
         <f t="shared" si="14"/>
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_89</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C90" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_89</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="15"/>
@@ -3981,12 +4020,12 @@
         <f t="shared" si="14"/>
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_90</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C91" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_90</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="15"/>
@@ -4011,12 +4050,12 @@
         <f t="shared" si="14"/>
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_91</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C92" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_91</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="15"/>
@@ -4041,12 +4080,12 @@
         <f t="shared" si="14"/>
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_92</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C93" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_92</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="15"/>
@@ -4071,12 +4110,12 @@
         <f t="shared" si="14"/>
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_93</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C94" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_93</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="15"/>
@@ -4101,12 +4140,12 @@
         <f t="shared" si="14"/>
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_94</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C95" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_94</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="15"/>
@@ -4131,12 +4170,12 @@
         <f t="shared" si="14"/>
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_95</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C96" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_95</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="15"/>
@@ -4161,12 +4200,12 @@
         <f t="shared" si="14"/>
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_96</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C97" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_96</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="15"/>
@@ -4191,12 +4230,12 @@
         <f t="shared" si="14"/>
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_97</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C98" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_97</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="15"/>
@@ -4221,12 +4260,12 @@
         <f t="shared" si="14"/>
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_98</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C99" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_98</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="15"/>
@@ -4251,12 +4290,12 @@
         <f t="shared" si="14"/>
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_99</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C100" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_99</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="15"/>
@@ -4281,12 +4320,12 @@
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_100</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C101" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_100</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="15"/>
@@ -4311,12 +4350,12 @@
         <f t="shared" si="14"/>
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_101</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C102" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_101</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="15"/>
@@ -4341,12 +4380,12 @@
         <f t="shared" si="14"/>
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_102</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C103" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_102</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="15"/>
@@ -4371,12 +4410,12 @@
         <f t="shared" si="14"/>
         <v>103</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_103</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C104" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_103</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="15"/>
@@ -4401,12 +4440,12 @@
         <f t="shared" si="14"/>
         <v>104</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_104</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C105" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_104</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="15"/>
@@ -4431,12 +4470,12 @@
         <f t="shared" si="14"/>
         <v>105</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_105</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C106" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_105</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="15"/>
@@ -4461,12 +4500,12 @@
         <f t="shared" si="14"/>
         <v>106</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_106</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C107" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_106</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="15"/>
@@ -4491,12 +4530,12 @@
         <f t="shared" si="14"/>
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_107</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C108" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_107</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="15"/>
@@ -4521,12 +4560,12 @@
         <f t="shared" si="14"/>
         <v>108</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_108</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C109" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_108</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="15"/>
@@ -4551,12 +4590,12 @@
         <f t="shared" si="14"/>
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_109</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C110" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_109</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="15"/>
@@ -4581,12 +4620,12 @@
         <f t="shared" si="14"/>
         <v>110</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_110</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C111" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_110</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="15"/>
@@ -4611,12 +4650,12 @@
         <f t="shared" si="14"/>
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_111</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C112" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_111</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="15"/>
@@ -4641,12 +4680,12 @@
         <f t="shared" si="14"/>
         <v>112</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_112</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C113" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_112</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="15"/>
@@ -4671,12 +4710,12 @@
         <f t="shared" si="14"/>
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_113</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C114" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_113</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="15"/>
@@ -4701,12 +4740,12 @@
         <f t="shared" si="14"/>
         <v>114</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_114</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C115" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_114</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" ref="D115:D124" si="16">"test"&amp;A115&amp;"@test.de"</f>
@@ -4731,12 +4770,12 @@
         <f t="shared" si="14"/>
         <v>115</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_115</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C116" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_115</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="16"/>
@@ -4761,12 +4800,12 @@
         <f t="shared" si="14"/>
         <v>116</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_116</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C117" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_116</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="16"/>
@@ -4791,12 +4830,12 @@
         <f t="shared" si="14"/>
         <v>117</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_117</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C118" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_117</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="16"/>
@@ -4821,12 +4860,12 @@
         <f t="shared" si="14"/>
         <v>118</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_118</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C119" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_118</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="16"/>
@@ -4851,12 +4890,12 @@
         <f t="shared" si="14"/>
         <v>119</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_119</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C120" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_119</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="16"/>
@@ -4881,12 +4920,12 @@
         <f t="shared" si="14"/>
         <v>120</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_120</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C121" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_120</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="16"/>
@@ -4911,12 +4950,12 @@
         <f t="shared" si="14"/>
         <v>121</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_121</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C122" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_121</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="16"/>
@@ -4941,12 +4980,12 @@
         <f t="shared" si="14"/>
         <v>122</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_122</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C123" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_122</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="16"/>
@@ -4971,12 +5010,12 @@
         <f t="shared" si="14"/>
         <v>123</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_123</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C124" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_123</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="16"/>
@@ -5001,15 +5040,15 @@
         <f t="shared" si="14"/>
         <v>124</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_124</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C125" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_124</v>
-      </c>
       <c r="D125" t="str">
-        <f t="shared" ref="D125:D132" si="17">"test"&amp;A125&amp;"@test.de"</f>
+        <f t="shared" ref="D125:D142" si="17">"test"&amp;A125&amp;"@test.de"</f>
         <v>test124@test.de</v>
       </c>
       <c r="E125" t="s">
@@ -5031,12 +5070,12 @@
         <f t="shared" si="14"/>
         <v>125</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_125</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C126" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_125</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="17"/>
@@ -5061,12 +5100,12 @@
         <f t="shared" si="14"/>
         <v>126</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_126</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C127" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_126</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="17"/>
@@ -5091,12 +5130,12 @@
         <f t="shared" si="14"/>
         <v>127</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_127</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C128" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_127</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="17"/>
@@ -5121,12 +5160,12 @@
         <f t="shared" si="14"/>
         <v>128</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_128</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C129" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_128</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="17"/>
@@ -5151,12 +5190,12 @@
         <f t="shared" si="14"/>
         <v>129</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" t="str">
+        <f t="shared" si="12"/>
+        <v>nrna_129</v>
+      </c>
+      <c r="C130" t="s">
         <v>142</v>
-      </c>
-      <c r="C130" t="str">
-        <f t="shared" si="12"/>
-        <v>nrna_129</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="17"/>
@@ -5181,12 +5220,12 @@
         <f t="shared" si="14"/>
         <v>130</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" t="str">
+        <f t="shared" ref="B131:B145" si="18">"nrna"&amp;IF($A131&lt;10,"_0","_")&amp;$A131</f>
+        <v>nrna_130</v>
+      </c>
+      <c r="C131" t="s">
         <v>144</v>
-      </c>
-      <c r="C131" t="str">
-        <f t="shared" ref="C131:C132" si="18">"nrna"&amp;IF($A131&lt;10,"_0","_")&amp;$A131</f>
-        <v>nrna_130</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="17"/>
@@ -5199,10 +5238,427 @@
         <v>12345703</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131:G132" si="19">"nrna"&amp;IF($A131&lt;10,"_0","_"&amp;"")&amp;$A131</f>
+        <f t="shared" ref="G131:G145" si="19">"nrna"&amp;IF($A131&lt;10,"_0","_"&amp;"")&amp;$A131</f>
         <v>nrna_130</v>
       </c>
       <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="14"/>
+        <v>131</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>148</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="17"/>
+        <v>test131@test.de</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132">
+        <v>12345703</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_131</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" ref="A133:A145" si="20">A132+1</f>
+        <v>132</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="17"/>
+        <v>test132@test.de</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133">
+        <v>12345703</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_132</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="20"/>
+        <v>133</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>150</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="17"/>
+        <v>test133@test.de</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134">
+        <v>12345703</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_133</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="20"/>
+        <v>134</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>151</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="17"/>
+        <v>test134@test.de</v>
+      </c>
+      <c r="E135" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135">
+        <v>12345703</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_134</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="20"/>
+        <v>135</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>152</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="17"/>
+        <v>test135@test.de</v>
+      </c>
+      <c r="E136" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136">
+        <v>12345703</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_135</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="20"/>
+        <v>136</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>153</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="17"/>
+        <v>test136@test.de</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137">
+        <v>12345703</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_136</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="20"/>
+        <v>137</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>154</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="17"/>
+        <v>test137@test.de</v>
+      </c>
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138">
+        <v>12345703</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_137</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="20"/>
+        <v>138</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_138</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="17"/>
+        <v>test138@test.de</v>
+      </c>
+      <c r="E139" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139">
+        <v>12345704</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_138</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="20"/>
+        <v>139</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_139</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="17"/>
+        <v>test139@test.de</v>
+      </c>
+      <c r="E140" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140">
+        <v>12345705</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_139</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="20"/>
+        <v>140</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_140</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="17"/>
+        <v>test140@test.de</v>
+      </c>
+      <c r="E141" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141">
+        <v>12345706</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_140</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="20"/>
+        <v>141</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_141</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="17"/>
+        <v>test141@test.de</v>
+      </c>
+      <c r="E142" t="s">
+        <v>18</v>
+      </c>
+      <c r="F142">
+        <v>12345707</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_141</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="20"/>
+        <v>142</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_142</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" ref="D143:D144" si="21">"test"&amp;A143&amp;"@test.de"</f>
+        <v>test142@test.de</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143">
+        <v>12345708</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_142</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="20"/>
+        <v>143</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>157</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="21"/>
+        <v>test143@test.de</v>
+      </c>
+      <c r="E144" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144">
+        <v>12345709</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_143</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" si="20"/>
+        <v>144</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_144</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" ref="D145" si="22">"test"&amp;A145&amp;"@test.de"</f>
+        <v>test144@test.de</v>
+      </c>
+      <c r="E145" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145">
+        <v>12345709</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_144</v>
+      </c>
+      <c r="H145">
         <v>0</v>
       </c>
     </row>

--- a/storage/csv_files/global_candidates.xlsx
+++ b/storage/csv_files/global_candidates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="159">
   <si>
     <t>sn</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>Madhav Prasad Ghimire</t>
+  </si>
+  <si>
+    <t>Sandip Chhetri</t>
   </si>
 </sst>
 </file>
@@ -1304,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5644,12 +5647,15 @@
         <f t="shared" si="18"/>
         <v>nrna_144</v>
       </c>
+      <c r="C145" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="D145" t="str">
         <f t="shared" ref="D145" si="22">"test"&amp;A145&amp;"@test.de"</f>
         <v>test144@test.de</v>
       </c>
       <c r="E145" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F145">
         <v>12345709</v>

--- a/storage/csv_files/global_candidates.xlsx
+++ b/storage/csv_files/global_candidates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="160">
   <si>
     <t>sn</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>Sandip Chhetri</t>
+  </si>
+  <si>
+    <t>Gautam Buddha</t>
   </si>
 </sst>
 </file>
@@ -1305,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5224,7 +5227,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" ref="B131:B145" si="18">"nrna"&amp;IF($A131&lt;10,"_0","_")&amp;$A131</f>
+        <f t="shared" ref="B131:B146" si="18">"nrna"&amp;IF($A131&lt;10,"_0","_")&amp;$A131</f>
         <v>nrna_130</v>
       </c>
       <c r="C131" t="s">
@@ -5241,7 +5244,7 @@
         <v>12345703</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131:G145" si="19">"nrna"&amp;IF($A131&lt;10,"_0","_"&amp;"")&amp;$A131</f>
+        <f t="shared" ref="G131:G146" si="19">"nrna"&amp;IF($A131&lt;10,"_0","_"&amp;"")&amp;$A131</f>
         <v>nrna_130</v>
       </c>
       <c r="H131">
@@ -5280,7 +5283,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" ref="A133:A145" si="20">A132+1</f>
+        <f t="shared" ref="A133:A146" si="20">A132+1</f>
         <v>132</v>
       </c>
       <c r="B133" t="str">
@@ -5665,6 +5668,36 @@
         <v>nrna_144</v>
       </c>
       <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="20"/>
+        <v>145</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_145</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" ref="D146" si="23">"test"&amp;A146&amp;"@test.de"</f>
+        <v>test145@test.de</v>
+      </c>
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146">
+        <v>12345710</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_145</v>
+      </c>
+      <c r="H146">
         <v>0</v>
       </c>
     </row>

--- a/storage/csv_files/global_candidates.xlsx
+++ b/storage/csv_files/global_candidates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="186">
   <si>
     <t>sn</t>
   </si>
@@ -42,15 +42,9 @@
     <t>is_voter</t>
   </si>
   <si>
-    <t>Mt. Everest (Sagarmatha)</t>
-  </si>
-  <si>
     <t>Europe</t>
   </si>
   <si>
-    <t>Mt. Kanchenjunga</t>
-  </si>
-  <si>
     <t>Americas</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>Sushila Karki</t>
   </si>
   <si>
-    <t>Himani Shaha</t>
-  </si>
-  <si>
     <t>Football</t>
   </si>
   <si>
@@ -499,6 +490,93 @@
   </si>
   <si>
     <t>Gautam Buddha</t>
+  </si>
+  <si>
+    <t>Princes Janaki (Sita)</t>
+  </si>
+  <si>
+    <t>Nirmal Purja</t>
+  </si>
+  <si>
+    <t>Prabal Gurung</t>
+  </si>
+  <si>
+    <t>Dr. Ram Baran Yadav</t>
+  </si>
+  <si>
+    <t>Bal Krishna Acharya</t>
+  </si>
+  <si>
+    <t>Mt. Everest (8848.86 M)</t>
+  </si>
+  <si>
+    <t>Mt. Kanchenjunga (8586M)</t>
+  </si>
+  <si>
+    <t>MT.  Makalu (8463 M)</t>
+  </si>
+  <si>
+    <t>MT. LHOTSE (8516 M)</t>
+  </si>
+  <si>
+    <t>Mukesh Kayastha (living Marytr of Nepal)</t>
+  </si>
+  <si>
+    <t>Phoksundo Lake</t>
+  </si>
+  <si>
+    <t>Dhurmus Suntali Foundation</t>
+  </si>
+  <si>
+    <t>Binod Chaudhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Himani Shaha </t>
+  </si>
+  <si>
+    <t>Anil Keshari Shah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulman Ghising </t>
+  </si>
+  <si>
+    <t>Gangan Kumar Thapa</t>
+  </si>
+  <si>
+    <t>Yogesh Kumar Bhattarai</t>
+  </si>
+  <si>
+    <t>Ram Kumari Jhakri</t>
+  </si>
+  <si>
+    <t>Sandeep Lamichhane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pradesh 1 </t>
+  </si>
+  <si>
+    <t>Pradesh 2</t>
+  </si>
+  <si>
+    <t>Pradesh 3</t>
+  </si>
+  <si>
+    <t>Pradesh 4</t>
+  </si>
+  <si>
+    <t>Pradesh 5</t>
+  </si>
+  <si>
+    <t>Pradesh 6</t>
+  </si>
+  <si>
+    <t>Pradesh 7</t>
+  </si>
+  <si>
+    <t>Barsha Man Pun</t>
+  </si>
+  <si>
+    <t>Ambika Shrestha</t>
   </si>
 </sst>
 </file>
@@ -982,10 +1060,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1308,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1361,14 +1442,14 @@
         <v>nrna_01</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="D2" t="str">
         <f>"test"&amp;A2&amp;"@test.de"</f>
         <v>test1@test.de</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>12345678</v>
@@ -1391,14 +1472,14 @@
         <v>nrna_02</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D28" si="1">"test"&amp;A3&amp;"@test.de"</f>
         <v>test2@test.de</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>12345678</v>
@@ -1421,14 +1502,14 @@
         <v>nrna_03</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="1"/>
         <v>test3@test.de</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>12345678</v>
@@ -1451,14 +1532,14 @@
         <v>nrna_04</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="1"/>
         <v>test4@test.de</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>12345678</v>
@@ -1481,14 +1562,14 @@
         <v>nrna_05</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="1"/>
         <v>test5@test.de</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>12345678</v>
@@ -1511,14 +1592,14 @@
         <v>nrna_06</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
         <v>test6@test.de</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>12345678</v>
@@ -1541,14 +1622,14 @@
         <v>nrna_07</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
         <v>test7@test.de</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>12345678</v>
@@ -1571,14 +1652,14 @@
         <v>nrna_08</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
         <v>test8@test.de</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>12345678</v>
@@ -1601,14 +1682,14 @@
         <v>nrna_09</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
         <v>test9@test.de</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>12345678</v>
@@ -1631,14 +1712,14 @@
         <v>nrna_10</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
         <v>test10@test.de</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>12345678</v>
@@ -1661,14 +1742,14 @@
         <v>nrna_11</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
         <v>test11@test.de</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <v>12345678</v>
@@ -1691,14 +1772,14 @@
         <v>nrna_12</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
         <v>test12@test.de</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13">
         <v>12345678</v>
@@ -1721,14 +1802,14 @@
         <v>nrna_13</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
         <v>test13@test.de</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14">
         <v>12345678</v>
@@ -1751,14 +1832,14 @@
         <v>nrna_14</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
         <v>test14@test.de</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15">
         <v>12345678</v>
@@ -1781,14 +1862,14 @@
         <v>nrna_15</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
         <v>test15@test.de</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16">
         <v>12345678</v>
@@ -1811,14 +1892,14 @@
         <v>nrna_16</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
         <v>test16@test.de</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <v>12345678</v>
@@ -1841,14 +1922,14 @@
         <v>nrna_17</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
         <v>test17@test.de</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>12345678</v>
@@ -1871,14 +1952,14 @@
         <v>nrna_18</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
         <v>test18@test.de</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19">
         <v>12345678</v>
@@ -1901,14 +1982,14 @@
         <v>nrna_19</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
         <v>test19@test.de</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>12345678</v>
@@ -1931,14 +2012,14 @@
         <v>nrna_20</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
         <v>test20@test.de</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <v>12345678</v>
@@ -1961,14 +2042,14 @@
         <v>nrna_21</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
         <v>test21@test.de</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <v>12345678</v>
@@ -1991,14 +2072,14 @@
         <v>nrna_22</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
         <v>test22@test.de</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>12345678</v>
@@ -2021,14 +2102,14 @@
         <v>nrna_23</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
         <v>test23@test.de</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F24">
         <v>12345678</v>
@@ -2051,14 +2132,14 @@
         <v>nrna_24</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
         <v>test24@test.de</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <v>12345678</v>
@@ -2081,14 +2162,14 @@
         <v>nrna_25</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
         <v>test25@test.de</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F26">
         <v>12345678</v>
@@ -2111,14 +2192,14 @@
         <v>nrna_26</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
         <v>test26@test.de</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27">
         <v>12345678</v>
@@ -2141,14 +2222,14 @@
         <v>nrna_27</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
         <v>test27@test.de</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28">
         <v>12345678</v>
@@ -2171,14 +2252,14 @@
         <v>nrna_28</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" ref="D29" si="4">"test"&amp;A29&amp;"@test.de"</f>
         <v>test28@test.de</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F29">
         <v>12345679</v>
@@ -2201,14 +2282,14 @@
         <v>nrna_29</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" ref="D30:D33" si="5">"test"&amp;A30&amp;"@test.de"</f>
         <v>test29@test.de</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30">
         <v>12345680</v>
@@ -2231,14 +2312,14 @@
         <v>nrna_30</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="5"/>
         <v>test30@test.de</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31">
         <v>12345681</v>
@@ -2261,14 +2342,14 @@
         <v>nrna_31</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="5"/>
         <v>test31@test.de</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F32">
         <v>12345682</v>
@@ -2291,14 +2372,14 @@
         <v>nrna_32</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="5"/>
         <v>test32@test.de</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33">
         <v>12345683</v>
@@ -2321,14 +2402,14 @@
         <v>nrna_33</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ref="D34:D38" si="6">"test"&amp;A34&amp;"@test.de"</f>
         <v>test33@test.de</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34">
         <v>12345684</v>
@@ -2351,14 +2432,14 @@
         <v>nrna_34</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="6"/>
         <v>test34@test.de</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F35">
         <v>12345685</v>
@@ -2381,14 +2462,14 @@
         <v>nrna_35</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="6"/>
         <v>test35@test.de</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36">
         <v>12345686</v>
@@ -2411,14 +2492,14 @@
         <v>nrna_36</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="6"/>
         <v>test36@test.de</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F37">
         <v>12345687</v>
@@ -2441,14 +2522,14 @@
         <v>nrna_37</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="6"/>
         <v>test37@test.de</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38">
         <v>12345688</v>
@@ -2471,14 +2552,14 @@
         <v>nrna_38</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ref="D39:D58" si="7">"test"&amp;A39&amp;"@test.de"</f>
         <v>test38@test.de</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39">
         <v>12345689</v>
@@ -2501,14 +2582,14 @@
         <v>nrna_39</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="7"/>
         <v>test39@test.de</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F40">
         <v>12345690</v>
@@ -2531,14 +2612,14 @@
         <v>nrna_40</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="7"/>
         <v>test40@test.de</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41">
         <v>12345691</v>
@@ -2561,14 +2642,14 @@
         <v>nrna_41</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="7"/>
         <v>test41@test.de</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F42">
         <v>12345692</v>
@@ -2591,14 +2672,14 @@
         <v>nrna_42</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="7"/>
         <v>test42@test.de</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43">
         <v>12345693</v>
@@ -2621,14 +2702,14 @@
         <v>nrna_43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="7"/>
         <v>test43@test.de</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>12345694</v>
@@ -2651,14 +2732,14 @@
         <v>nrna_44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="7"/>
         <v>test44@test.de</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45">
         <v>12345695</v>
@@ -2681,14 +2762,14 @@
         <v>nrna_45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="7"/>
         <v>test45@test.de</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F46">
         <v>12345696</v>
@@ -2711,14 +2792,14 @@
         <v>nrna_46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="7"/>
         <v>test46@test.de</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47">
         <v>12345697</v>
@@ -2741,14 +2822,14 @@
         <v>nrna_47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="7"/>
         <v>test47@test.de</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F48">
         <v>12345698</v>
@@ -2771,14 +2852,14 @@
         <v>nrna_48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="7"/>
         <v>test48@test.de</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49">
         <v>12345699</v>
@@ -2801,14 +2882,14 @@
         <v>nrna_49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="7"/>
         <v>test49@test.de</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F50">
         <v>12345700</v>
@@ -2831,14 +2912,14 @@
         <v>nrna_50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="7"/>
         <v>test50@test.de</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51">
         <v>12345701</v>
@@ -2861,14 +2942,14 @@
         <v>nrna_51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="7"/>
         <v>test51@test.de</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F52">
         <v>12345702</v>
@@ -2891,14 +2972,14 @@
         <v>nrna_52</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="7"/>
         <v>test52@test.de</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F53">
         <v>12345703</v>
@@ -2921,14 +3002,14 @@
         <v>nrna_53</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="7"/>
         <v>test53@test.de</v>
       </c>
       <c r="E54" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F54">
         <v>12345703</v>
@@ -2951,14 +3032,14 @@
         <v>nrna_54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="7"/>
         <v>test54@test.de</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F55">
         <v>12345703</v>
@@ -2981,14 +3062,14 @@
         <v>nrna_55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="7"/>
         <v>test55@test.de</v>
       </c>
       <c r="E56" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F56">
         <v>12345703</v>
@@ -3011,14 +3092,14 @@
         <v>nrna_56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="7"/>
         <v>test56@test.de</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F57">
         <v>12345703</v>
@@ -3041,14 +3122,14 @@
         <v>nrna_57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="7"/>
         <v>test57@test.de</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58">
         <v>12345703</v>
@@ -3071,14 +3152,14 @@
         <v>nrna_58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" ref="D59" si="8">"test"&amp;A59&amp;"@test.de"</f>
         <v>test58@test.de</v>
       </c>
       <c r="E59" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F59">
         <v>12345703</v>
@@ -3101,14 +3182,14 @@
         <v>nrna_59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" ref="D60:D61" si="9">"test"&amp;A60&amp;"@test.de"</f>
         <v>test59@test.de</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F60">
         <v>12345703</v>
@@ -3131,14 +3212,14 @@
         <v>nrna_60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="9"/>
         <v>test60@test.de</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61">
         <v>12345703</v>
@@ -3161,14 +3242,14 @@
         <v>nrna_61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" ref="D62:D65" si="10">"test"&amp;A62&amp;"@test.de"</f>
         <v>test61@test.de</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F62">
         <v>12345703</v>
@@ -3191,14 +3272,14 @@
         <v>nrna_62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="10"/>
         <v>test62@test.de</v>
       </c>
       <c r="E63" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F63">
         <v>12345703</v>
@@ -3221,14 +3302,14 @@
         <v>nrna_63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="10"/>
         <v>test63@test.de</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F64">
         <v>12345703</v>
@@ -3251,14 +3332,14 @@
         <v>nrna_64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="10"/>
         <v>test64@test.de</v>
       </c>
       <c r="E65" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F65">
         <v>12345703</v>
@@ -3281,14 +3362,14 @@
         <v>nrna_65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" ref="D66:D71" si="11">"test"&amp;A66&amp;"@test.de"</f>
         <v>test65@test.de</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66">
         <v>12345703</v>
@@ -3311,14 +3392,14 @@
         <v>nrna_66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="11"/>
         <v>test66@test.de</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F67">
         <v>12345703</v>
@@ -3341,14 +3422,14 @@
         <v>nrna_67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="11"/>
         <v>test67@test.de</v>
       </c>
       <c r="E68" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F68">
         <v>12345703</v>
@@ -3371,14 +3452,14 @@
         <v>nrna_68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="11"/>
         <v>test68@test.de</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F69">
         <v>12345703</v>
@@ -3401,14 +3482,14 @@
         <v>nrna_69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="11"/>
         <v>test69@test.de</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F70">
         <v>12345703</v>
@@ -3431,14 +3512,14 @@
         <v>nrna_70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="11"/>
         <v>test70@test.de</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71">
         <v>12345703</v>
@@ -3461,14 +3542,14 @@
         <v>nrna_71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" ref="D72:D114" si="15">"test"&amp;A72&amp;"@test.de"</f>
         <v>test71@test.de</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72">
         <v>12345703</v>
@@ -3491,14 +3572,14 @@
         <v>nrna_72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="15"/>
         <v>test72@test.de</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73">
         <v>12345703</v>
@@ -3521,14 +3602,14 @@
         <v>nrna_73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="15"/>
         <v>test73@test.de</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74">
         <v>12345703</v>
@@ -3551,14 +3632,14 @@
         <v>nrna_74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="15"/>
         <v>test74@test.de</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75">
         <v>12345703</v>
@@ -3581,14 +3662,14 @@
         <v>nrna_75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="15"/>
         <v>test75@test.de</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F76">
         <v>12345703</v>
@@ -3611,14 +3692,14 @@
         <v>nrna_76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="15"/>
         <v>test76@test.de</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77">
         <v>12345703</v>
@@ -3641,14 +3722,14 @@
         <v>nrna_77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="15"/>
         <v>test77@test.de</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F78">
         <v>12345703</v>
@@ -3671,14 +3752,14 @@
         <v>nrna_78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="15"/>
         <v>test78@test.de</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79">
         <v>12345703</v>
@@ -3701,14 +3782,14 @@
         <v>nrna_79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="15"/>
         <v>test79@test.de</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F80">
         <v>12345703</v>
@@ -3731,14 +3812,14 @@
         <v>nrna_80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="15"/>
         <v>test80@test.de</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81">
         <v>12345703</v>
@@ -3761,14 +3842,14 @@
         <v>nrna_81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="15"/>
         <v>test81@test.de</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82">
         <v>12345703</v>
@@ -3791,14 +3872,14 @@
         <v>nrna_82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="15"/>
         <v>test82@test.de</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83">
         <v>12345703</v>
@@ -3821,14 +3902,14 @@
         <v>nrna_83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="15"/>
         <v>test83@test.de</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F84">
         <v>12345703</v>
@@ -3851,14 +3932,14 @@
         <v>nrna_84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="15"/>
         <v>test84@test.de</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85">
         <v>12345703</v>
@@ -3881,14 +3962,14 @@
         <v>nrna_85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="15"/>
         <v>test85@test.de</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F86">
         <v>12345703</v>
@@ -3911,14 +3992,14 @@
         <v>nrna_86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="15"/>
         <v>test86@test.de</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F87">
         <v>12345703</v>
@@ -3941,14 +4022,14 @@
         <v>nrna_87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="15"/>
         <v>test87@test.de</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F88">
         <v>12345703</v>
@@ -3971,14 +4052,14 @@
         <v>nrna_88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="15"/>
         <v>test88@test.de</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F89">
         <v>12345703</v>
@@ -4001,14 +4082,14 @@
         <v>nrna_89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="15"/>
         <v>test89@test.de</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F90">
         <v>12345703</v>
@@ -4031,14 +4112,14 @@
         <v>nrna_90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="15"/>
         <v>test90@test.de</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91">
         <v>12345703</v>
@@ -4061,14 +4142,14 @@
         <v>nrna_91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="15"/>
         <v>test91@test.de</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F92">
         <v>12345703</v>
@@ -4091,14 +4172,14 @@
         <v>nrna_92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="15"/>
         <v>test92@test.de</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93">
         <v>12345703</v>
@@ -4121,14 +4202,14 @@
         <v>nrna_93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="15"/>
         <v>test93@test.de</v>
       </c>
       <c r="E94" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F94">
         <v>12345703</v>
@@ -4151,14 +4232,14 @@
         <v>nrna_94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="15"/>
         <v>test94@test.de</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95">
         <v>12345703</v>
@@ -4181,14 +4262,14 @@
         <v>nrna_95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="15"/>
         <v>test95@test.de</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F96">
         <v>12345703</v>
@@ -4211,14 +4292,14 @@
         <v>nrna_96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="15"/>
         <v>test96@test.de</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F97">
         <v>12345703</v>
@@ -4241,14 +4322,14 @@
         <v>nrna_97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="15"/>
         <v>test97@test.de</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F98">
         <v>12345703</v>
@@ -4271,14 +4352,14 @@
         <v>nrna_98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="15"/>
         <v>test98@test.de</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F99">
         <v>12345703</v>
@@ -4301,14 +4382,14 @@
         <v>nrna_99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="15"/>
         <v>test99@test.de</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F100">
         <v>12345703</v>
@@ -4331,14 +4412,14 @@
         <v>nrna_100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="15"/>
         <v>test100@test.de</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F101">
         <v>12345703</v>
@@ -4361,14 +4442,14 @@
         <v>nrna_101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="15"/>
         <v>test101@test.de</v>
       </c>
       <c r="E102" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F102">
         <v>12345703</v>
@@ -4391,14 +4472,14 @@
         <v>nrna_102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="15"/>
         <v>test102@test.de</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F103">
         <v>12345703</v>
@@ -4421,14 +4502,14 @@
         <v>nrna_103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="15"/>
         <v>test103@test.de</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F104">
         <v>12345703</v>
@@ -4451,14 +4532,14 @@
         <v>nrna_104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="15"/>
         <v>test104@test.de</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F105">
         <v>12345703</v>
@@ -4481,14 +4562,14 @@
         <v>nrna_105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="15"/>
         <v>test105@test.de</v>
       </c>
       <c r="E106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F106">
         <v>12345703</v>
@@ -4511,14 +4592,14 @@
         <v>nrna_106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="15"/>
         <v>test106@test.de</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F107">
         <v>12345703</v>
@@ -4541,14 +4622,14 @@
         <v>nrna_107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="15"/>
         <v>test107@test.de</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F108">
         <v>12345703</v>
@@ -4571,14 +4652,14 @@
         <v>nrna_108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="15"/>
         <v>test108@test.de</v>
       </c>
       <c r="E109" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F109">
         <v>12345703</v>
@@ -4601,14 +4682,14 @@
         <v>nrna_109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="15"/>
         <v>test109@test.de</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F110">
         <v>12345703</v>
@@ -4631,14 +4712,14 @@
         <v>nrna_110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="15"/>
         <v>test110@test.de</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F111">
         <v>12345703</v>
@@ -4661,14 +4742,14 @@
         <v>nrna_111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="15"/>
         <v>test111@test.de</v>
       </c>
       <c r="E112" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F112">
         <v>12345703</v>
@@ -4691,14 +4772,14 @@
         <v>nrna_112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="15"/>
         <v>test112@test.de</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F113">
         <v>12345703</v>
@@ -4721,14 +4802,14 @@
         <v>nrna_113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="15"/>
         <v>test113@test.de</v>
       </c>
       <c r="E114" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F114">
         <v>12345703</v>
@@ -4751,14 +4832,14 @@
         <v>nrna_114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" ref="D115:D124" si="16">"test"&amp;A115&amp;"@test.de"</f>
         <v>test114@test.de</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F115">
         <v>12345703</v>
@@ -4781,14 +4862,14 @@
         <v>nrna_115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="16"/>
         <v>test115@test.de</v>
       </c>
       <c r="E116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F116">
         <v>12345703</v>
@@ -4811,14 +4892,14 @@
         <v>nrna_116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="16"/>
         <v>test116@test.de</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F117">
         <v>12345703</v>
@@ -4841,14 +4922,14 @@
         <v>nrna_117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="16"/>
         <v>test117@test.de</v>
       </c>
       <c r="E118" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F118">
         <v>12345703</v>
@@ -4871,14 +4952,14 @@
         <v>nrna_118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="16"/>
         <v>test118@test.de</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F119">
         <v>12345703</v>
@@ -4901,14 +4982,14 @@
         <v>nrna_119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="16"/>
         <v>test119@test.de</v>
       </c>
       <c r="E120" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F120">
         <v>12345703</v>
@@ -4931,14 +5012,14 @@
         <v>nrna_120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="16"/>
         <v>test120@test.de</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F121">
         <v>12345703</v>
@@ -4961,14 +5042,14 @@
         <v>nrna_121</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="16"/>
         <v>test121@test.de</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F122">
         <v>12345703</v>
@@ -4991,14 +5072,14 @@
         <v>nrna_122</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="16"/>
         <v>test122@test.de</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F123">
         <v>12345703</v>
@@ -5021,14 +5102,14 @@
         <v>nrna_123</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="16"/>
         <v>test123@test.de</v>
       </c>
       <c r="E124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F124">
         <v>12345703</v>
@@ -5051,14 +5132,14 @@
         <v>nrna_124</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" ref="D125:D142" si="17">"test"&amp;A125&amp;"@test.de"</f>
         <v>test124@test.de</v>
       </c>
       <c r="E125" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F125">
         <v>12345703</v>
@@ -5081,14 +5162,14 @@
         <v>nrna_125</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="17"/>
         <v>test125@test.de</v>
       </c>
       <c r="E126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F126">
         <v>12345703</v>
@@ -5111,14 +5192,14 @@
         <v>nrna_126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="17"/>
         <v>test126@test.de</v>
       </c>
       <c r="E127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F127">
         <v>12345703</v>
@@ -5141,14 +5222,14 @@
         <v>nrna_127</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="17"/>
         <v>test127@test.de</v>
       </c>
       <c r="E128" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F128">
         <v>12345703</v>
@@ -5171,14 +5252,14 @@
         <v>nrna_128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="17"/>
         <v>test128@test.de</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F129">
         <v>12345703</v>
@@ -5201,14 +5282,14 @@
         <v>nrna_129</v>
       </c>
       <c r="C130" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="17"/>
         <v>test129@test.de</v>
       </c>
       <c r="E130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F130">
         <v>12345703</v>
@@ -5227,24 +5308,24 @@
         <v>130</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" ref="B131:B146" si="18">"nrna"&amp;IF($A131&lt;10,"_0","_")&amp;$A131</f>
+        <f t="shared" ref="B131:B172" si="18">"nrna"&amp;IF($A131&lt;10,"_0","_")&amp;$A131</f>
         <v>nrna_130</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="17"/>
         <v>test130@test.de</v>
       </c>
       <c r="E131" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F131">
         <v>12345703</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131:G146" si="19">"nrna"&amp;IF($A131&lt;10,"_0","_"&amp;"")&amp;$A131</f>
+        <f t="shared" ref="G131:G172" si="19">"nrna"&amp;IF($A131&lt;10,"_0","_"&amp;"")&amp;$A131</f>
         <v>nrna_130</v>
       </c>
       <c r="H131">
@@ -5261,14 +5342,14 @@
         <v>nrna_131</v>
       </c>
       <c r="C132" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="17"/>
         <v>test131@test.de</v>
       </c>
       <c r="E132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F132">
         <v>12345703</v>
@@ -5283,7 +5364,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" ref="A133:A146" si="20">A132+1</f>
+        <f t="shared" ref="A133:A152" si="20">A132+1</f>
         <v>132</v>
       </c>
       <c r="B133" t="str">
@@ -5291,14 +5372,14 @@
         <v>nrna_132</v>
       </c>
       <c r="C133" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="17"/>
         <v>test132@test.de</v>
       </c>
       <c r="E133" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F133">
         <v>12345703</v>
@@ -5321,14 +5402,14 @@
         <v>nrna_133</v>
       </c>
       <c r="C134" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="17"/>
         <v>test133@test.de</v>
       </c>
       <c r="E134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F134">
         <v>12345703</v>
@@ -5351,14 +5432,14 @@
         <v>nrna_134</v>
       </c>
       <c r="C135" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="17"/>
         <v>test134@test.de</v>
       </c>
       <c r="E135" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F135">
         <v>12345703</v>
@@ -5381,14 +5462,14 @@
         <v>nrna_135</v>
       </c>
       <c r="C136" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="17"/>
         <v>test135@test.de</v>
       </c>
       <c r="E136" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F136">
         <v>12345703</v>
@@ -5411,14 +5492,14 @@
         <v>nrna_136</v>
       </c>
       <c r="C137" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="17"/>
         <v>test136@test.de</v>
       </c>
       <c r="E137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F137">
         <v>12345703</v>
@@ -5441,14 +5522,14 @@
         <v>nrna_137</v>
       </c>
       <c r="C138" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="17"/>
         <v>test137@test.de</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F138">
         <v>12345703</v>
@@ -5471,14 +5552,14 @@
         <v>nrna_138</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="17"/>
         <v>test138@test.de</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F139">
         <v>12345704</v>
@@ -5501,14 +5582,14 @@
         <v>nrna_139</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="17"/>
         <v>test139@test.de</v>
       </c>
       <c r="E140" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F140">
         <v>12345705</v>
@@ -5531,14 +5612,14 @@
         <v>nrna_140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="17"/>
         <v>test140@test.de</v>
       </c>
       <c r="E141" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F141">
         <v>12345706</v>
@@ -5561,14 +5642,14 @@
         <v>nrna_141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="17"/>
         <v>test141@test.de</v>
       </c>
       <c r="E142" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F142">
         <v>12345707</v>
@@ -5591,14 +5672,14 @@
         <v>nrna_142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" ref="D143:D144" si="21">"test"&amp;A143&amp;"@test.de"</f>
         <v>test142@test.de</v>
       </c>
       <c r="E143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F143">
         <v>12345708</v>
@@ -5621,14 +5702,14 @@
         <v>nrna_143</v>
       </c>
       <c r="C144" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="21"/>
         <v>test143@test.de</v>
       </c>
       <c r="E144" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F144">
         <v>12345709</v>
@@ -5651,14 +5732,14 @@
         <v>nrna_144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" ref="D145" si="22">"test"&amp;A145&amp;"@test.de"</f>
         <v>test144@test.de</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F145">
         <v>12345709</v>
@@ -5681,14 +5762,14 @@
         <v>nrna_145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" ref="D146" si="23">"test"&amp;A146&amp;"@test.de"</f>
         <v>test145@test.de</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F146">
         <v>12345710</v>
@@ -5698,6 +5779,786 @@
         <v>nrna_145</v>
       </c>
       <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="20"/>
+        <v>146</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_146</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" ref="D147" si="24">"test"&amp;A147&amp;"@test.de"</f>
+        <v>test146@test.de</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147">
+        <v>12345710</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_146</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="20"/>
+        <v>147</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_147</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" ref="D148" si="25">"test"&amp;A148&amp;"@test.de"</f>
+        <v>test147@test.de</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148">
+        <v>12345710</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_147</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="20"/>
+        <v>148</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_148</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" ref="D149" si="26">"test"&amp;A149&amp;"@test.de"</f>
+        <v>test148@test.de</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149">
+        <v>12345710</v>
+      </c>
+      <c r="G149" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_148</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="20"/>
+        <v>149</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_149</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" ref="D150" si="27">"test"&amp;A150&amp;"@test.de"</f>
+        <v>test149@test.de</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150">
+        <v>12345710</v>
+      </c>
+      <c r="G150" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_149</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="20"/>
+        <v>150</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_150</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" ref="D151" si="28">"test"&amp;A151&amp;"@test.de"</f>
+        <v>test150@test.de</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151">
+        <v>12345710</v>
+      </c>
+      <c r="G151" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_150</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f>A151+1</f>
+        <v>151</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_151</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" ref="D152" si="29">"test"&amp;A152&amp;"@test.de"</f>
+        <v>test151@test.de</v>
+      </c>
+      <c r="E152" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152">
+        <v>12345710</v>
+      </c>
+      <c r="G152" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_151</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f>A152+1</f>
+        <v>152</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_152</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" ref="D153" si="30">"test"&amp;A153&amp;"@test.de"</f>
+        <v>test152@test.de</v>
+      </c>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153">
+        <v>12345711</v>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_152</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f>A153+1</f>
+        <v>153</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_153</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" ref="D154" si="31">"test"&amp;A154&amp;"@test.de"</f>
+        <v>test153@test.de</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154">
+        <v>12345711</v>
+      </c>
+      <c r="G154" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_153</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f>A154+1</f>
+        <v>154</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_154</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" ref="D155" si="32">"test"&amp;A155&amp;"@test.de"</f>
+        <v>test154@test.de</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155">
+        <v>12345712</v>
+      </c>
+      <c r="G155" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_154</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f>A155+1</f>
+        <v>155</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_155</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" ref="D156:D157" si="33">"test"&amp;A156&amp;"@test.de"</f>
+        <v>test155@test.de</v>
+      </c>
+      <c r="E156" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156">
+        <v>12345712</v>
+      </c>
+      <c r="G156" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_155</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f>A156+1</f>
+        <v>156</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_156</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="33"/>
+        <v>test156@test.de</v>
+      </c>
+      <c r="E157" t="s">
+        <v>8</v>
+      </c>
+      <c r="F157">
+        <v>12345712</v>
+      </c>
+      <c r="G157" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_156</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f>A157+1</f>
+        <v>157</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_157</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" ref="D158:D159" si="34">"test"&amp;A158&amp;"@test.de"</f>
+        <v>test157@test.de</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158">
+        <v>12345712</v>
+      </c>
+      <c r="G158" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_157</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f>A158+1</f>
+        <v>158</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_158</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="34"/>
+        <v>test158@test.de</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159">
+        <v>12345712</v>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_158</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f>A159+1</f>
+        <v>159</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_159</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" ref="D160:D161" si="35">"test"&amp;A160&amp;"@test.de"</f>
+        <v>test159@test.de</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160">
+        <v>12345712</v>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_159</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" ref="A161:A167" si="36">A160+1</f>
+        <v>160</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_160</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="35"/>
+        <v>test160@test.de</v>
+      </c>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161">
+        <v>12345712</v>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_160</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="36"/>
+        <v>161</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_161</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" ref="D162:D167" si="37">"test"&amp;A162&amp;"@test.de"</f>
+        <v>test161@test.de</v>
+      </c>
+      <c r="E162" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162">
+        <v>12345712</v>
+      </c>
+      <c r="G162" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_161</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" ref="A163" si="38">A162+1</f>
+        <v>162</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_162</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" ref="D163" si="39">"test"&amp;A163&amp;"@test.de"</f>
+        <v>test162@test.de</v>
+      </c>
+      <c r="E163" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163">
+        <v>12345712</v>
+      </c>
+      <c r="G163" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_162</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" ref="A164:A170" si="40">A163+1</f>
+        <v>163</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_163</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" ref="D164:D170" si="41">"test"&amp;A164&amp;"@test.de"</f>
+        <v>test163@test.de</v>
+      </c>
+      <c r="E164" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164">
+        <v>12345713</v>
+      </c>
+      <c r="G164" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_163</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="40"/>
+        <v>164</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_164</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="41"/>
+        <v>test164@test.de</v>
+      </c>
+      <c r="E165" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165">
+        <v>12345714</v>
+      </c>
+      <c r="G165" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_164</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="40"/>
+        <v>165</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_165</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="41"/>
+        <v>test165@test.de</v>
+      </c>
+      <c r="E166" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166">
+        <v>12345715</v>
+      </c>
+      <c r="G166" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_165</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="40"/>
+        <v>166</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_166</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="41"/>
+        <v>test166@test.de</v>
+      </c>
+      <c r="E167" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167">
+        <v>12345716</v>
+      </c>
+      <c r="G167" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_166</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="40"/>
+        <v>167</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_167</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="41"/>
+        <v>test167@test.de</v>
+      </c>
+      <c r="E168" t="s">
+        <v>8</v>
+      </c>
+      <c r="F168">
+        <v>12345717</v>
+      </c>
+      <c r="G168" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_167</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" si="40"/>
+        <v>168</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_168</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="41"/>
+        <v>test168@test.de</v>
+      </c>
+      <c r="E169" t="s">
+        <v>8</v>
+      </c>
+      <c r="F169">
+        <v>12345718</v>
+      </c>
+      <c r="G169" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_168</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" si="40"/>
+        <v>169</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_169</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="41"/>
+        <v>test169@test.de</v>
+      </c>
+      <c r="E170" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170">
+        <v>12345719</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_169</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" ref="A171" si="42">A170+1</f>
+        <v>170</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_170</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" ref="D171" si="43">"test"&amp;A171&amp;"@test.de"</f>
+        <v>test170@test.de</v>
+      </c>
+      <c r="E171" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171">
+        <v>12345719</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_170</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" ref="A172" si="44">A171+1</f>
+        <v>171</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_171</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" ref="D172" si="45">"test"&amp;A172&amp;"@test.de"</f>
+        <v>test171@test.de</v>
+      </c>
+      <c r="E172" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172">
+        <v>12345719</v>
+      </c>
+      <c r="G172" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_171</v>
+      </c>
+      <c r="H172">
         <v>0</v>
       </c>
     </row>

--- a/storage/csv_files/global_candidates.xlsx
+++ b/storage/csv_files/global_candidates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="191">
   <si>
     <t>sn</t>
   </si>
@@ -577,6 +577,21 @@
   </si>
   <si>
     <t>Ambika Shrestha</t>
+  </si>
+  <si>
+    <t>Nikita Acharya</t>
+  </si>
+  <si>
+    <t>Nepali Khaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepali Momo </t>
+  </si>
+  <si>
+    <t>Nepali Dhido</t>
+  </si>
+  <si>
+    <t>Nepali Traditional  Khana</t>
   </si>
 </sst>
 </file>
@@ -1389,17 +1404,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="J176" sqref="J176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -5308,7 +5323,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" ref="B131:B172" si="18">"nrna"&amp;IF($A131&lt;10,"_0","_")&amp;$A131</f>
+        <f t="shared" ref="B131:B177" si="18">"nrna"&amp;IF($A131&lt;10,"_0","_")&amp;$A131</f>
         <v>nrna_130</v>
       </c>
       <c r="C131" t="s">
@@ -5325,7 +5340,7 @@
         <v>12345703</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131:G172" si="19">"nrna"&amp;IF($A131&lt;10,"_0","_"&amp;"")&amp;$A131</f>
+        <f t="shared" ref="G131:G177" si="19">"nrna"&amp;IF($A131&lt;10,"_0","_"&amp;"")&amp;$A131</f>
         <v>nrna_130</v>
       </c>
       <c r="H131">
@@ -5364,7 +5379,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" ref="A133:A152" si="20">A132+1</f>
+        <f t="shared" ref="A133:A151" si="20">A132+1</f>
         <v>132</v>
       </c>
       <c r="B133" t="str">
@@ -5934,7 +5949,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
-        <f>A151+1</f>
+        <f t="shared" ref="A152:A160" si="29">A151+1</f>
         <v>151</v>
       </c>
       <c r="B152" t="str">
@@ -5945,7 +5960,7 @@
         <v>161</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" ref="D152" si="29">"test"&amp;A152&amp;"@test.de"</f>
+        <f t="shared" ref="D152" si="30">"test"&amp;A152&amp;"@test.de"</f>
         <v>test151@test.de</v>
       </c>
       <c r="E152" t="s">
@@ -5964,7 +5979,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
-        <f>A152+1</f>
+        <f t="shared" si="29"/>
         <v>152</v>
       </c>
       <c r="B153" t="str">
@@ -5975,7 +5990,7 @@
         <v>165</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" ref="D153" si="30">"test"&amp;A153&amp;"@test.de"</f>
+        <f t="shared" ref="D153" si="31">"test"&amp;A153&amp;"@test.de"</f>
         <v>test152@test.de</v>
       </c>
       <c r="E153" t="s">
@@ -5994,7 +6009,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
-        <f>A153+1</f>
+        <f t="shared" si="29"/>
         <v>153</v>
       </c>
       <c r="B154" t="str">
@@ -6005,7 +6020,7 @@
         <v>164</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" ref="D154" si="31">"test"&amp;A154&amp;"@test.de"</f>
+        <f t="shared" ref="D154" si="32">"test"&amp;A154&amp;"@test.de"</f>
         <v>test153@test.de</v>
       </c>
       <c r="E154" t="s">
@@ -6024,7 +6039,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
-        <f>A154+1</f>
+        <f t="shared" si="29"/>
         <v>154</v>
       </c>
       <c r="B155" t="str">
@@ -6035,7 +6050,7 @@
         <v>167</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" ref="D155" si="32">"test"&amp;A155&amp;"@test.de"</f>
+        <f t="shared" ref="D155" si="33">"test"&amp;A155&amp;"@test.de"</f>
         <v>test154@test.de</v>
       </c>
       <c r="E155" t="s">
@@ -6054,7 +6069,7 @@
     </row>
     <row r="156" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A156">
-        <f>A155+1</f>
+        <f t="shared" si="29"/>
         <v>155</v>
       </c>
       <c r="B156" t="str">
@@ -6065,7 +6080,7 @@
         <v>168</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" ref="D156:D157" si="33">"test"&amp;A156&amp;"@test.de"</f>
+        <f t="shared" ref="D156:D157" si="34">"test"&amp;A156&amp;"@test.de"</f>
         <v>test155@test.de</v>
       </c>
       <c r="E156" t="s">
@@ -6084,7 +6099,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
-        <f>A156+1</f>
+        <f t="shared" si="29"/>
         <v>156</v>
       </c>
       <c r="B157" t="str">
@@ -6095,7 +6110,7 @@
         <v>169</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>test156@test.de</v>
       </c>
       <c r="E157" t="s">
@@ -6114,7 +6129,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
-        <f>A157+1</f>
+        <f t="shared" si="29"/>
         <v>157</v>
       </c>
       <c r="B158" t="str">
@@ -6125,7 +6140,7 @@
         <v>171</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" ref="D158:D159" si="34">"test"&amp;A158&amp;"@test.de"</f>
+        <f t="shared" ref="D158:D159" si="35">"test"&amp;A158&amp;"@test.de"</f>
         <v>test157@test.de</v>
       </c>
       <c r="E158" t="s">
@@ -6144,7 +6159,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
-        <f>A158+1</f>
+        <f t="shared" si="29"/>
         <v>158</v>
       </c>
       <c r="B159" t="str">
@@ -6155,7 +6170,7 @@
         <v>172</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>test158@test.de</v>
       </c>
       <c r="E159" t="s">
@@ -6174,7 +6189,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
-        <f>A159+1</f>
+        <f t="shared" si="29"/>
         <v>159</v>
       </c>
       <c r="B160" t="str">
@@ -6185,7 +6200,7 @@
         <v>175</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" ref="D160:D161" si="35">"test"&amp;A160&amp;"@test.de"</f>
+        <f t="shared" ref="D160:D161" si="36">"test"&amp;A160&amp;"@test.de"</f>
         <v>test159@test.de</v>
       </c>
       <c r="E160" t="s">
@@ -6204,7 +6219,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
-        <f t="shared" ref="A161:A167" si="36">A160+1</f>
+        <f t="shared" ref="A161:A162" si="37">A160+1</f>
         <v>160</v>
       </c>
       <c r="B161" t="str">
@@ -6215,7 +6230,7 @@
         <v>174</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>test160@test.de</v>
       </c>
       <c r="E161" t="s">
@@ -6234,7 +6249,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>161</v>
       </c>
       <c r="B162" t="str">
@@ -6245,7 +6260,7 @@
         <v>173</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" ref="D162:D167" si="37">"test"&amp;A162&amp;"@test.de"</f>
+        <f t="shared" ref="D162" si="38">"test"&amp;A162&amp;"@test.de"</f>
         <v>test161@test.de</v>
       </c>
       <c r="E162" t="s">
@@ -6264,7 +6279,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
-        <f t="shared" ref="A163" si="38">A162+1</f>
+        <f t="shared" ref="A163" si="39">A162+1</f>
         <v>162</v>
       </c>
       <c r="B163" t="str">
@@ -6275,7 +6290,7 @@
         <v>176</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" ref="D163" si="39">"test"&amp;A163&amp;"@test.de"</f>
+        <f t="shared" ref="D163" si="40">"test"&amp;A163&amp;"@test.de"</f>
         <v>test162@test.de</v>
       </c>
       <c r="E163" t="s">
@@ -6294,7 +6309,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
-        <f t="shared" ref="A164:A170" si="40">A163+1</f>
+        <f t="shared" ref="A164:A170" si="41">A163+1</f>
         <v>163</v>
       </c>
       <c r="B164" t="str">
@@ -6305,7 +6320,7 @@
         <v>177</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" ref="D164:D170" si="41">"test"&amp;A164&amp;"@test.de"</f>
+        <f t="shared" ref="D164:D170" si="42">"test"&amp;A164&amp;"@test.de"</f>
         <v>test163@test.de</v>
       </c>
       <c r="E164" t="s">
@@ -6324,7 +6339,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>164</v>
       </c>
       <c r="B165" t="str">
@@ -6335,7 +6350,7 @@
         <v>178</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>test164@test.de</v>
       </c>
       <c r="E165" t="s">
@@ -6354,7 +6369,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>165</v>
       </c>
       <c r="B166" t="str">
@@ -6365,7 +6380,7 @@
         <v>179</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>test165@test.de</v>
       </c>
       <c r="E166" t="s">
@@ -6384,7 +6399,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>166</v>
       </c>
       <c r="B167" t="str">
@@ -6395,7 +6410,7 @@
         <v>180</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>test166@test.de</v>
       </c>
       <c r="E167" t="s">
@@ -6414,7 +6429,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>167</v>
       </c>
       <c r="B168" t="str">
@@ -6425,7 +6440,7 @@
         <v>181</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>test167@test.de</v>
       </c>
       <c r="E168" t="s">
@@ -6444,7 +6459,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>168</v>
       </c>
       <c r="B169" t="str">
@@ -6455,7 +6470,7 @@
         <v>182</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>test168@test.de</v>
       </c>
       <c r="E169" t="s">
@@ -6474,7 +6489,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>169</v>
       </c>
       <c r="B170" t="str">
@@ -6485,7 +6500,7 @@
         <v>183</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>test169@test.de</v>
       </c>
       <c r="E170" t="s">
@@ -6504,7 +6519,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
-        <f t="shared" ref="A171" si="42">A170+1</f>
+        <f t="shared" ref="A171" si="43">A170+1</f>
         <v>170</v>
       </c>
       <c r="B171" t="str">
@@ -6515,7 +6530,7 @@
         <v>184</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" ref="D171" si="43">"test"&amp;A171&amp;"@test.de"</f>
+        <f t="shared" ref="D171" si="44">"test"&amp;A171&amp;"@test.de"</f>
         <v>test170@test.de</v>
       </c>
       <c r="E171" t="s">
@@ -6534,7 +6549,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f t="shared" ref="A172" si="44">A171+1</f>
+        <f t="shared" ref="A172:A177" si="45">A171+1</f>
         <v>171</v>
       </c>
       <c r="B172" t="str">
@@ -6545,7 +6560,7 @@
         <v>185</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" ref="D172" si="45">"test"&amp;A172&amp;"@test.de"</f>
+        <f t="shared" ref="D172" si="46">"test"&amp;A172&amp;"@test.de"</f>
         <v>test171@test.de</v>
       </c>
       <c r="E172" t="s">
@@ -6560,6 +6575,156 @@
       </c>
       <c r="H172">
         <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" si="45"/>
+        <v>172</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_172</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" ref="D173" si="47">"test"&amp;A173&amp;"@test.de"</f>
+        <v>test172@test.de</v>
+      </c>
+      <c r="E173" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173">
+        <v>12345719</v>
+      </c>
+      <c r="G173" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_172</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" si="45"/>
+        <v>173</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_173</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" ref="D174" si="48">"test"&amp;A174&amp;"@test.de"</f>
+        <v>test173@test.de</v>
+      </c>
+      <c r="E174" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174">
+        <v>12345719</v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_173</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" si="45"/>
+        <v>174</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_174</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" ref="D175:D177" si="49">"test"&amp;A175&amp;"@test.de"</f>
+        <v>test174@test.de</v>
+      </c>
+      <c r="E175" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175">
+        <v>12345720</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_174</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" si="45"/>
+        <v>175</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_175</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="49"/>
+        <v>test175@test.de</v>
+      </c>
+      <c r="E176" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176">
+        <v>12345721</v>
+      </c>
+      <c r="G176" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_175</v>
+      </c>
+      <c r="H176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" si="45"/>
+        <v>176</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_176</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="49"/>
+        <v>test176@test.de</v>
+      </c>
+      <c r="E177" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177">
+        <v>12345722</v>
+      </c>
+      <c r="G177" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_176</v>
+      </c>
+      <c r="H177">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/storage/csv_files/global_candidates.xlsx
+++ b/storage/csv_files/global_candidates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="201">
   <si>
     <t>sn</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Tilicho Lake</t>
   </si>
   <si>
-    <t>Ek Rupaya</t>
-  </si>
-  <si>
     <t>Coin 10 Rupaya</t>
   </si>
   <si>
@@ -592,6 +589,39 @@
   </si>
   <si>
     <t>Nepali Traditional  Khana</t>
+  </si>
+  <si>
+    <t>Nawaraj Parajuli</t>
+  </si>
+  <si>
+    <t>Bharat Mani  Poudel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tara Devi </t>
+  </si>
+  <si>
+    <t>Nabin K Bhattarai</t>
+  </si>
+  <si>
+    <t>Rajendra Baniya</t>
+  </si>
+  <si>
+    <t>Dil Bhusan Pathak</t>
+  </si>
+  <si>
+    <t>Bhusan Dahal</t>
+  </si>
+  <si>
+    <t>Indra Lohani</t>
+  </si>
+  <si>
+    <t>Yubaraj Ghimire</t>
+  </si>
+  <si>
+    <t>Ganga Maya Adhikari</t>
+  </si>
+  <si>
+    <t>Chari Maya Tamang</t>
   </si>
 </sst>
 </file>
@@ -1404,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="J176" sqref="J176"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1487,7 @@
         <v>nrna_01</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" t="str">
         <f>"test"&amp;A2&amp;"@test.de"</f>
@@ -1487,7 +1517,7 @@
         <v>nrna_02</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D28" si="1">"test"&amp;A3&amp;"@test.de"</f>
@@ -2417,7 +2447,7 @@
         <v>nrna_33</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ref="D34:D38" si="6">"test"&amp;A34&amp;"@test.de"</f>
@@ -2447,7 +2477,7 @@
         <v>nrna_34</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="6"/>
@@ -2477,7 +2507,7 @@
         <v>nrna_35</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="6"/>
@@ -2507,7 +2537,7 @@
         <v>nrna_36</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="6"/>
@@ -2537,7 +2567,7 @@
         <v>nrna_37</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="6"/>
@@ -2567,7 +2597,7 @@
         <v>nrna_38</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ref="D39:D58" si="7">"test"&amp;A39&amp;"@test.de"</f>
@@ -2597,7 +2627,7 @@
         <v>nrna_39</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="7"/>
@@ -2627,7 +2657,7 @@
         <v>nrna_40</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="7"/>
@@ -2657,7 +2687,7 @@
         <v>nrna_41</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="7"/>
@@ -2687,7 +2717,7 @@
         <v>nrna_42</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="7"/>
@@ -2717,7 +2747,7 @@
         <v>nrna_43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="7"/>
@@ -2747,7 +2777,7 @@
         <v>nrna_44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="7"/>
@@ -2777,7 +2807,7 @@
         <v>nrna_45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="7"/>
@@ -2807,7 +2837,7 @@
         <v>nrna_46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="7"/>
@@ -2837,7 +2867,7 @@
         <v>nrna_47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="7"/>
@@ -2867,7 +2897,7 @@
         <v>nrna_48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="7"/>
@@ -2897,7 +2927,7 @@
         <v>nrna_49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="7"/>
@@ -2927,7 +2957,7 @@
         <v>nrna_50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="7"/>
@@ -2957,7 +2987,7 @@
         <v>nrna_51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="7"/>
@@ -2987,7 +3017,7 @@
         <v>nrna_52</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="7"/>
@@ -3017,14 +3047,14 @@
         <v>nrna_53</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="7"/>
         <v>test53@test.de</v>
       </c>
       <c r="E54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F54">
         <v>12345703</v>
@@ -3047,7 +3077,7 @@
         <v>nrna_54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="7"/>
@@ -3077,14 +3107,14 @@
         <v>nrna_55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="7"/>
         <v>test55@test.de</v>
       </c>
       <c r="E56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F56">
         <v>12345703</v>
@@ -3107,7 +3137,7 @@
         <v>nrna_56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="7"/>
@@ -3137,7 +3167,7 @@
         <v>nrna_57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="7"/>
@@ -3167,14 +3197,14 @@
         <v>nrna_58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" ref="D59" si="8">"test"&amp;A59&amp;"@test.de"</f>
         <v>test58@test.de</v>
       </c>
       <c r="E59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F59">
         <v>12345703</v>
@@ -3197,7 +3227,7 @@
         <v>nrna_59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" ref="D60:D61" si="9">"test"&amp;A60&amp;"@test.de"</f>
@@ -3227,7 +3257,7 @@
         <v>nrna_60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="9"/>
@@ -3257,7 +3287,7 @@
         <v>nrna_61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" ref="D62:D65" si="10">"test"&amp;A62&amp;"@test.de"</f>
@@ -3287,14 +3317,14 @@
         <v>nrna_62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="10"/>
         <v>test62@test.de</v>
       </c>
       <c r="E63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F63">
         <v>12345703</v>
@@ -3317,7 +3347,7 @@
         <v>nrna_63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="10"/>
@@ -3347,14 +3377,14 @@
         <v>nrna_64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="10"/>
         <v>test64@test.de</v>
       </c>
       <c r="E65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F65">
         <v>12345703</v>
@@ -3377,7 +3407,7 @@
         <v>nrna_65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" ref="D66:D71" si="11">"test"&amp;A66&amp;"@test.de"</f>
@@ -3407,7 +3437,7 @@
         <v>nrna_66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="11"/>
@@ -3437,14 +3467,14 @@
         <v>nrna_67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="11"/>
         <v>test67@test.de</v>
       </c>
       <c r="E68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F68">
         <v>12345703</v>
@@ -3467,7 +3497,7 @@
         <v>nrna_68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="11"/>
@@ -3497,7 +3527,7 @@
         <v>nrna_69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="11"/>
@@ -3527,7 +3557,7 @@
         <v>nrna_70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="11"/>
@@ -3557,7 +3587,7 @@
         <v>nrna_71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" ref="D72:D114" si="15">"test"&amp;A72&amp;"@test.de"</f>
@@ -3587,7 +3617,7 @@
         <v>nrna_72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="15"/>
@@ -3617,7 +3647,7 @@
         <v>nrna_73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="15"/>
@@ -3647,7 +3677,7 @@
         <v>nrna_74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="15"/>
@@ -3677,7 +3707,7 @@
         <v>nrna_75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="15"/>
@@ -3707,7 +3737,7 @@
         <v>nrna_76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="15"/>
@@ -3737,7 +3767,7 @@
         <v>nrna_77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="15"/>
@@ -3767,7 +3797,7 @@
         <v>nrna_78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="15"/>
@@ -3797,7 +3827,7 @@
         <v>nrna_79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="15"/>
@@ -3827,7 +3857,7 @@
         <v>nrna_80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="15"/>
@@ -3857,7 +3887,7 @@
         <v>nrna_81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="15"/>
@@ -3887,7 +3917,7 @@
         <v>nrna_82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="15"/>
@@ -3917,7 +3947,7 @@
         <v>nrna_83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="15"/>
@@ -3947,7 +3977,7 @@
         <v>nrna_84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="15"/>
@@ -3977,7 +4007,7 @@
         <v>nrna_85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="15"/>
@@ -4007,7 +4037,7 @@
         <v>nrna_86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="15"/>
@@ -4037,7 +4067,7 @@
         <v>nrna_87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="15"/>
@@ -4067,7 +4097,7 @@
         <v>nrna_88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="15"/>
@@ -4097,7 +4127,7 @@
         <v>nrna_89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="15"/>
@@ -4127,7 +4157,7 @@
         <v>nrna_90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="15"/>
@@ -4157,7 +4187,7 @@
         <v>nrna_91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="15"/>
@@ -4187,7 +4217,7 @@
         <v>nrna_92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="15"/>
@@ -4217,7 +4247,7 @@
         <v>nrna_93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="15"/>
@@ -4247,7 +4277,7 @@
         <v>nrna_94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="15"/>
@@ -4277,7 +4307,7 @@
         <v>nrna_95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="15"/>
@@ -4307,7 +4337,7 @@
         <v>nrna_96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="15"/>
@@ -4337,7 +4367,7 @@
         <v>nrna_97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="15"/>
@@ -4367,7 +4397,7 @@
         <v>nrna_98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="15"/>
@@ -4397,7 +4427,7 @@
         <v>nrna_99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="15"/>
@@ -4427,7 +4457,7 @@
         <v>nrna_100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="15"/>
@@ -4457,7 +4487,7 @@
         <v>nrna_101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="15"/>
@@ -4487,7 +4517,7 @@
         <v>nrna_102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="15"/>
@@ -4517,7 +4547,7 @@
         <v>nrna_103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="15"/>
@@ -4547,7 +4577,7 @@
         <v>nrna_104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="15"/>
@@ -4577,7 +4607,7 @@
         <v>nrna_105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="15"/>
@@ -4607,7 +4637,7 @@
         <v>nrna_106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="15"/>
@@ -4637,7 +4667,7 @@
         <v>nrna_107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="15"/>
@@ -4667,7 +4697,7 @@
         <v>nrna_108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="15"/>
@@ -4697,7 +4727,7 @@
         <v>nrna_109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="15"/>
@@ -4727,7 +4757,7 @@
         <v>nrna_110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="15"/>
@@ -4757,7 +4787,7 @@
         <v>nrna_111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="15"/>
@@ -4787,7 +4817,7 @@
         <v>nrna_112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="15"/>
@@ -4817,7 +4847,7 @@
         <v>nrna_113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="15"/>
@@ -4847,7 +4877,7 @@
         <v>nrna_114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" ref="D115:D124" si="16">"test"&amp;A115&amp;"@test.de"</f>
@@ -4877,7 +4907,7 @@
         <v>nrna_115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="16"/>
@@ -4907,7 +4937,7 @@
         <v>nrna_116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="16"/>
@@ -4937,7 +4967,7 @@
         <v>nrna_117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="16"/>
@@ -4967,7 +4997,7 @@
         <v>nrna_118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="16"/>
@@ -4997,7 +5027,7 @@
         <v>nrna_119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="16"/>
@@ -5027,7 +5057,7 @@
         <v>nrna_120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="16"/>
@@ -5057,7 +5087,7 @@
         <v>nrna_121</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="16"/>
@@ -5087,7 +5117,7 @@
         <v>nrna_122</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="16"/>
@@ -5117,7 +5147,7 @@
         <v>nrna_123</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="16"/>
@@ -5147,7 +5177,7 @@
         <v>nrna_124</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" ref="D125:D142" si="17">"test"&amp;A125&amp;"@test.de"</f>
@@ -5177,7 +5207,7 @@
         <v>nrna_125</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="17"/>
@@ -5207,7 +5237,7 @@
         <v>nrna_126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="17"/>
@@ -5237,7 +5267,7 @@
         <v>nrna_127</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="17"/>
@@ -5267,7 +5297,7 @@
         <v>nrna_128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="17"/>
@@ -5297,7 +5327,7 @@
         <v>nrna_129</v>
       </c>
       <c r="C130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="17"/>
@@ -5323,11 +5353,11 @@
         <v>130</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" ref="B131:B177" si="18">"nrna"&amp;IF($A131&lt;10,"_0","_")&amp;$A131</f>
+        <f t="shared" ref="B131:B187" si="18">"nrna"&amp;IF($A131&lt;10,"_0","_")&amp;$A131</f>
         <v>nrna_130</v>
       </c>
       <c r="C131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="17"/>
@@ -5340,7 +5370,7 @@
         <v>12345703</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131:G177" si="19">"nrna"&amp;IF($A131&lt;10,"_0","_"&amp;"")&amp;$A131</f>
+        <f t="shared" ref="G131:G187" si="19">"nrna"&amp;IF($A131&lt;10,"_0","_"&amp;"")&amp;$A131</f>
         <v>nrna_130</v>
       </c>
       <c r="H131">
@@ -5357,7 +5387,7 @@
         <v>nrna_131</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="17"/>
@@ -5387,7 +5417,7 @@
         <v>nrna_132</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="17"/>
@@ -5417,7 +5447,7 @@
         <v>nrna_133</v>
       </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="17"/>
@@ -5447,7 +5477,7 @@
         <v>nrna_134</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="17"/>
@@ -5477,7 +5507,7 @@
         <v>nrna_135</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="17"/>
@@ -5507,7 +5537,7 @@
         <v>nrna_136</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="17"/>
@@ -5537,7 +5567,7 @@
         <v>nrna_137</v>
       </c>
       <c r="C138" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="17"/>
@@ -5567,7 +5597,7 @@
         <v>nrna_138</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="17"/>
@@ -5597,7 +5627,7 @@
         <v>nrna_139</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="17"/>
@@ -5627,7 +5657,7 @@
         <v>nrna_140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="17"/>
@@ -5657,7 +5687,7 @@
         <v>nrna_141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="17"/>
@@ -5687,7 +5717,7 @@
         <v>nrna_142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" ref="D143:D144" si="21">"test"&amp;A143&amp;"@test.de"</f>
@@ -5717,7 +5747,7 @@
         <v>nrna_143</v>
       </c>
       <c r="C144" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="21"/>
@@ -5747,7 +5777,7 @@
         <v>nrna_144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" ref="D145" si="22">"test"&amp;A145&amp;"@test.de"</f>
@@ -5777,7 +5807,7 @@
         <v>nrna_145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" ref="D146" si="23">"test"&amp;A146&amp;"@test.de"</f>
@@ -5807,7 +5837,7 @@
         <v>nrna_146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" ref="D147" si="24">"test"&amp;A147&amp;"@test.de"</f>
@@ -5837,7 +5867,7 @@
         <v>nrna_147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" ref="D148" si="25">"test"&amp;A148&amp;"@test.de"</f>
@@ -5867,7 +5897,7 @@
         <v>nrna_148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" ref="D149" si="26">"test"&amp;A149&amp;"@test.de"</f>
@@ -5897,7 +5927,7 @@
         <v>nrna_149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" ref="D150" si="27">"test"&amp;A150&amp;"@test.de"</f>
@@ -5927,7 +5957,7 @@
         <v>nrna_150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" ref="D151" si="28">"test"&amp;A151&amp;"@test.de"</f>
@@ -5957,7 +5987,7 @@
         <v>nrna_151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" ref="D152" si="30">"test"&amp;A152&amp;"@test.de"</f>
@@ -5987,7 +6017,7 @@
         <v>nrna_152</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" ref="D153" si="31">"test"&amp;A153&amp;"@test.de"</f>
@@ -6017,7 +6047,7 @@
         <v>nrna_153</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" ref="D154" si="32">"test"&amp;A154&amp;"@test.de"</f>
@@ -6047,7 +6077,7 @@
         <v>nrna_154</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" ref="D155" si="33">"test"&amp;A155&amp;"@test.de"</f>
@@ -6067,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="29"/>
         <v>155</v>
@@ -6077,7 +6107,7 @@
         <v>nrna_155</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" ref="D156:D157" si="34">"test"&amp;A156&amp;"@test.de"</f>
@@ -6107,7 +6137,7 @@
         <v>nrna_156</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="34"/>
@@ -6137,7 +6167,7 @@
         <v>nrna_157</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" ref="D158:D159" si="35">"test"&amp;A158&amp;"@test.de"</f>
@@ -6167,7 +6197,7 @@
         <v>nrna_158</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="35"/>
@@ -6197,7 +6227,7 @@
         <v>nrna_159</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" ref="D160:D161" si="36">"test"&amp;A160&amp;"@test.de"</f>
@@ -6227,7 +6257,7 @@
         <v>nrna_160</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="36"/>
@@ -6257,7 +6287,7 @@
         <v>nrna_161</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" ref="D162" si="38">"test"&amp;A162&amp;"@test.de"</f>
@@ -6287,7 +6317,7 @@
         <v>nrna_162</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" ref="D163" si="40">"test"&amp;A163&amp;"@test.de"</f>
@@ -6317,7 +6347,7 @@
         <v>nrna_163</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" ref="D164:D170" si="42">"test"&amp;A164&amp;"@test.de"</f>
@@ -6347,7 +6377,7 @@
         <v>nrna_164</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="42"/>
@@ -6377,7 +6407,7 @@
         <v>nrna_165</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="42"/>
@@ -6407,7 +6437,7 @@
         <v>nrna_166</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="42"/>
@@ -6437,7 +6467,7 @@
         <v>nrna_167</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="42"/>
@@ -6467,7 +6497,7 @@
         <v>nrna_168</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="42"/>
@@ -6497,7 +6527,7 @@
         <v>nrna_169</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="42"/>
@@ -6527,7 +6557,7 @@
         <v>nrna_170</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" ref="D171" si="44">"test"&amp;A171&amp;"@test.de"</f>
@@ -6549,7 +6579,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f t="shared" ref="A172:A177" si="45">A171+1</f>
+        <f t="shared" ref="A172:A187" si="45">A171+1</f>
         <v>171</v>
       </c>
       <c r="B172" t="str">
@@ -6557,7 +6587,7 @@
         <v>nrna_171</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" ref="D172" si="46">"test"&amp;A172&amp;"@test.de"</f>
@@ -6587,7 +6617,7 @@
         <v>nrna_172</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" ref="D173" si="47">"test"&amp;A173&amp;"@test.de"</f>
@@ -6617,7 +6647,7 @@
         <v>nrna_173</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" ref="D174" si="48">"test"&amp;A174&amp;"@test.de"</f>
@@ -6647,7 +6677,7 @@
         <v>nrna_174</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" ref="D175:D177" si="49">"test"&amp;A175&amp;"@test.de"</f>
@@ -6664,7 +6694,7 @@
         <v>nrna_174</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -6677,7 +6707,7 @@
         <v>nrna_175</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="49"/>
@@ -6694,7 +6724,7 @@
         <v>nrna_175</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -6707,7 +6737,7 @@
         <v>nrna_176</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="49"/>
@@ -6724,7 +6754,307 @@
         <v>nrna_176</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" si="45"/>
+        <v>177</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_177</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" ref="D178" si="50">"test"&amp;A178&amp;"@test.de"</f>
+        <v>test177@test.de</v>
+      </c>
+      <c r="E178" t="s">
+        <v>8</v>
+      </c>
+      <c r="F178">
+        <v>12345723</v>
+      </c>
+      <c r="G178" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_177</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" si="45"/>
+        <v>178</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_178</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" ref="D179" si="51">"test"&amp;A179&amp;"@test.de"</f>
+        <v>test178@test.de</v>
+      </c>
+      <c r="E179" t="s">
+        <v>8</v>
+      </c>
+      <c r="F179">
+        <v>12345724</v>
+      </c>
+      <c r="G179" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_178</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" si="45"/>
+        <v>179</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_179</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" ref="D180" si="52">"test"&amp;A180&amp;"@test.de"</f>
+        <v>test179@test.de</v>
+      </c>
+      <c r="E180" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180">
+        <v>12345724</v>
+      </c>
+      <c r="G180" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_179</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" si="45"/>
+        <v>180</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_180</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" ref="D181" si="53">"test"&amp;A181&amp;"@test.de"</f>
+        <v>test180@test.de</v>
+      </c>
+      <c r="E181" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181">
+        <v>12345724</v>
+      </c>
+      <c r="G181" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_180</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" si="45"/>
+        <v>181</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_181</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" ref="D182" si="54">"test"&amp;A182&amp;"@test.de"</f>
+        <v>test181@test.de</v>
+      </c>
+      <c r="E182" t="s">
+        <v>8</v>
+      </c>
+      <c r="F182">
+        <v>12345724</v>
+      </c>
+      <c r="G182" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_181</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" si="45"/>
+        <v>182</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_182</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" ref="D183" si="55">"test"&amp;A183&amp;"@test.de"</f>
+        <v>test182@test.de</v>
+      </c>
+      <c r="E183" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183">
+        <v>12345724</v>
+      </c>
+      <c r="G183" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_182</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" si="45"/>
+        <v>183</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_183</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" ref="D184" si="56">"test"&amp;A184&amp;"@test.de"</f>
+        <v>test183@test.de</v>
+      </c>
+      <c r="E184" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184">
+        <v>12345724</v>
+      </c>
+      <c r="G184" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_183</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" si="45"/>
+        <v>184</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_184</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" ref="D185" si="57">"test"&amp;A185&amp;"@test.de"</f>
+        <v>test184@test.de</v>
+      </c>
+      <c r="E185" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185">
+        <v>12345724</v>
+      </c>
+      <c r="G185" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_184</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" si="45"/>
+        <v>185</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_185</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" ref="D186" si="58">"test"&amp;A186&amp;"@test.de"</f>
+        <v>test185@test.de</v>
+      </c>
+      <c r="E186" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186">
+        <v>12345724</v>
+      </c>
+      <c r="G186" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_185</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" si="45"/>
+        <v>186</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_186</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" ref="D187" si="59">"test"&amp;A187&amp;"@test.de"</f>
+        <v>test186@test.de</v>
+      </c>
+      <c r="E187" t="s">
+        <v>8</v>
+      </c>
+      <c r="F187">
+        <v>12345724</v>
+      </c>
+      <c r="G187" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_186</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/storage/csv_files/global_candidates.xlsx
+++ b/storage/csv_files/global_candidates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="210">
   <si>
     <t>sn</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Dharan City</t>
   </si>
   <si>
-    <t>Dhangadi City</t>
-  </si>
-  <si>
     <t>Biratnagar City</t>
   </si>
   <si>
@@ -153,33 +150,6 @@
     <t>Tilicho Lake</t>
   </si>
   <si>
-    <t>Coin 10 Rupaya</t>
-  </si>
-  <si>
-    <t>Coin 250 Rupaya</t>
-  </si>
-  <si>
-    <t>Coin 500 Rupaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coin 5 Rupaya </t>
-  </si>
-  <si>
-    <t>Coin 2 Rupaya</t>
-  </si>
-  <si>
-    <t>5 Rupaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25  Rupaya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 Rupaya </t>
-  </si>
-  <si>
-    <t>1000 Rupaya</t>
-  </si>
-  <si>
     <t>Parijaat</t>
   </si>
   <si>
@@ -219,9 +189,6 @@
     <t>Volleyball</t>
   </si>
   <si>
-    <t>1 Rupaya Coin</t>
-  </si>
-  <si>
     <t>Afria</t>
   </si>
   <si>
@@ -369,9 +336,6 @@
     <t>Wilson Bikram Rai</t>
   </si>
   <si>
-    <t>Sitaram Kattel</t>
-  </si>
-  <si>
     <t>Pasupati Sharma</t>
   </si>
   <si>
@@ -622,6 +586,69 @@
   </si>
   <si>
     <t>Chari Maya Tamang</t>
+  </si>
+  <si>
+    <t>Krishna Prasad Bhandari</t>
+  </si>
+  <si>
+    <t>Krishna Dharabasi</t>
+  </si>
+  <si>
+    <t>Dr. Upendra Devkota</t>
+  </si>
+  <si>
+    <t>Bijaya Lama</t>
+  </si>
+  <si>
+    <t>Ramesh Kharel</t>
+  </si>
+  <si>
+    <t>Jagadish Ghimire</t>
+  </si>
+  <si>
+    <t>Saru Bhakta</t>
+  </si>
+  <si>
+    <t>Dhurba Chandra Gautam</t>
+  </si>
+  <si>
+    <t>Khagendra Sangraula</t>
+  </si>
+  <si>
+    <t>Mallika Subba</t>
+  </si>
+  <si>
+    <t>Anushka Shrestha</t>
+  </si>
+  <si>
+    <t>Abhi Subedi</t>
+  </si>
+  <si>
+    <t>Manjushri Thapa</t>
+  </si>
+  <si>
+    <t>Sapana Roka Magar</t>
+  </si>
+  <si>
+    <t>Amar Neupane</t>
+  </si>
+  <si>
+    <t>Subin Bhattarai</t>
+  </si>
+  <si>
+    <t>Buddhi Sagar</t>
+  </si>
+  <si>
+    <t>Rabi Lamichhane</t>
+  </si>
+  <si>
+    <t>Bimal Gharti Magar</t>
+  </si>
+  <si>
+    <t>Kiran Chemjong</t>
+  </si>
+  <si>
+    <t>Sangina Baidya</t>
   </si>
 </sst>
 </file>
@@ -1434,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1487,7 +1514,7 @@
         <v>nrna_01</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D2" t="str">
         <f>"test"&amp;A2&amp;"@test.de"</f>
@@ -1517,7 +1544,7 @@
         <v>nrna_02</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D28" si="1">"test"&amp;A3&amp;"@test.de"</f>
@@ -1847,7 +1874,7 @@
         <v>nrna_13</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
@@ -1877,7 +1904,7 @@
         <v>nrna_14</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
@@ -1907,7 +1934,7 @@
         <v>nrna_15</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
@@ -1937,7 +1964,7 @@
         <v>nrna_16</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
@@ -1967,7 +1994,7 @@
         <v>nrna_17</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
@@ -1997,7 +2024,7 @@
         <v>nrna_18</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
@@ -2027,7 +2054,7 @@
         <v>nrna_19</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
@@ -2057,7 +2084,7 @@
         <v>nrna_20</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
@@ -2087,7 +2114,7 @@
         <v>nrna_21</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
@@ -2117,7 +2144,7 @@
         <v>nrna_22</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -2147,7 +2174,7 @@
         <v>nrna_23</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
@@ -2177,7 +2204,7 @@
         <v>nrna_24</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
@@ -2207,7 +2234,7 @@
         <v>nrna_25</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -2237,7 +2264,7 @@
         <v>nrna_26</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
@@ -2267,7 +2294,7 @@
         <v>nrna_27</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
@@ -2297,7 +2324,7 @@
         <v>nrna_28</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" ref="D29" si="4">"test"&amp;A29&amp;"@test.de"</f>
@@ -2327,7 +2354,7 @@
         <v>nrna_29</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" ref="D30:D33" si="5">"test"&amp;A30&amp;"@test.de"</f>
@@ -2357,7 +2384,7 @@
         <v>nrna_30</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="5"/>
@@ -2387,7 +2414,7 @@
         <v>nrna_31</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="5"/>
@@ -2417,7 +2444,7 @@
         <v>nrna_32</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="5"/>
@@ -2447,7 +2474,7 @@
         <v>nrna_33</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ref="D34:D38" si="6">"test"&amp;A34&amp;"@test.de"</f>
@@ -2477,7 +2504,7 @@
         <v>nrna_34</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="6"/>
@@ -2507,7 +2534,7 @@
         <v>nrna_35</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="6"/>
@@ -2537,7 +2564,7 @@
         <v>nrna_36</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="6"/>
@@ -2567,7 +2594,7 @@
         <v>nrna_37</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="6"/>
@@ -2597,7 +2624,7 @@
         <v>nrna_38</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ref="D39:D58" si="7">"test"&amp;A39&amp;"@test.de"</f>
@@ -2627,7 +2654,7 @@
         <v>nrna_39</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="7"/>
@@ -2657,7 +2684,7 @@
         <v>nrna_40</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="7"/>
@@ -2687,7 +2714,7 @@
         <v>nrna_41</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="7"/>
@@ -2717,7 +2744,7 @@
         <v>nrna_42</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="7"/>
@@ -2747,7 +2774,7 @@
         <v>nrna_43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="7"/>
@@ -2777,7 +2804,7 @@
         <v>nrna_44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="7"/>
@@ -2807,7 +2834,7 @@
         <v>nrna_45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="7"/>
@@ -2837,7 +2864,7 @@
         <v>nrna_46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="7"/>
@@ -2867,7 +2894,7 @@
         <v>nrna_47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="7"/>
@@ -2897,7 +2924,7 @@
         <v>nrna_48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="7"/>
@@ -2927,7 +2954,7 @@
         <v>nrna_49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="7"/>
@@ -2957,7 +2984,7 @@
         <v>nrna_50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="7"/>
@@ -2987,7 +3014,7 @@
         <v>nrna_51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="7"/>
@@ -3017,7 +3044,7 @@
         <v>nrna_52</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="7"/>
@@ -3047,14 +3074,14 @@
         <v>nrna_53</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="7"/>
         <v>test53@test.de</v>
       </c>
       <c r="E54" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F54">
         <v>12345703</v>
@@ -3077,7 +3104,7 @@
         <v>nrna_54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="7"/>
@@ -3107,14 +3134,14 @@
         <v>nrna_55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="7"/>
         <v>test55@test.de</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F56">
         <v>12345703</v>
@@ -3137,7 +3164,7 @@
         <v>nrna_56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="7"/>
@@ -3167,7 +3194,7 @@
         <v>nrna_57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="7"/>
@@ -3197,14 +3224,14 @@
         <v>nrna_58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" ref="D59" si="8">"test"&amp;A59&amp;"@test.de"</f>
         <v>test58@test.de</v>
       </c>
       <c r="E59" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F59">
         <v>12345703</v>
@@ -3227,7 +3254,7 @@
         <v>nrna_59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" ref="D60:D61" si="9">"test"&amp;A60&amp;"@test.de"</f>
@@ -3257,7 +3284,7 @@
         <v>nrna_60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="9"/>
@@ -3287,7 +3314,7 @@
         <v>nrna_61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" ref="D62:D65" si="10">"test"&amp;A62&amp;"@test.de"</f>
@@ -3317,14 +3344,14 @@
         <v>nrna_62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="10"/>
         <v>test62@test.de</v>
       </c>
       <c r="E63" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F63">
         <v>12345703</v>
@@ -3347,7 +3374,7 @@
         <v>nrna_63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="10"/>
@@ -3377,14 +3404,14 @@
         <v>nrna_64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="10"/>
         <v>test64@test.de</v>
       </c>
       <c r="E65" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F65">
         <v>12345703</v>
@@ -3407,7 +3434,7 @@
         <v>nrna_65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" ref="D66:D71" si="11">"test"&amp;A66&amp;"@test.de"</f>
@@ -3437,7 +3464,7 @@
         <v>nrna_66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="11"/>
@@ -3467,14 +3494,14 @@
         <v>nrna_67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="11"/>
         <v>test67@test.de</v>
       </c>
       <c r="E68" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F68">
         <v>12345703</v>
@@ -3497,7 +3524,7 @@
         <v>nrna_68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="11"/>
@@ -3527,7 +3554,7 @@
         <v>nrna_69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="11"/>
@@ -3557,7 +3584,7 @@
         <v>nrna_70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="11"/>
@@ -3587,7 +3614,7 @@
         <v>nrna_71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" ref="D72:D114" si="15">"test"&amp;A72&amp;"@test.de"</f>
@@ -3617,7 +3644,7 @@
         <v>nrna_72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="15"/>
@@ -3647,7 +3674,7 @@
         <v>nrna_73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="15"/>
@@ -3677,7 +3704,7 @@
         <v>nrna_74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="15"/>
@@ -3707,7 +3734,7 @@
         <v>nrna_75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="15"/>
@@ -3737,7 +3764,7 @@
         <v>nrna_76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="15"/>
@@ -3767,7 +3794,7 @@
         <v>nrna_77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="15"/>
@@ -3797,7 +3824,7 @@
         <v>nrna_78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="15"/>
@@ -3827,7 +3854,7 @@
         <v>nrna_79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="15"/>
@@ -3857,7 +3884,7 @@
         <v>nrna_80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="15"/>
@@ -3887,7 +3914,7 @@
         <v>nrna_81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="15"/>
@@ -3917,7 +3944,7 @@
         <v>nrna_82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="15"/>
@@ -3947,7 +3974,7 @@
         <v>nrna_83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="15"/>
@@ -3977,7 +4004,7 @@
         <v>nrna_84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="15"/>
@@ -4007,7 +4034,7 @@
         <v>nrna_85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="15"/>
@@ -4037,7 +4064,7 @@
         <v>nrna_86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="15"/>
@@ -4067,7 +4094,7 @@
         <v>nrna_87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="15"/>
@@ -4097,7 +4124,7 @@
         <v>nrna_88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="15"/>
@@ -4127,7 +4154,7 @@
         <v>nrna_89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="15"/>
@@ -4157,7 +4184,7 @@
         <v>nrna_90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="15"/>
@@ -4187,7 +4214,7 @@
         <v>nrna_91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="15"/>
@@ -4217,7 +4244,7 @@
         <v>nrna_92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="15"/>
@@ -4247,7 +4274,7 @@
         <v>nrna_93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="15"/>
@@ -4277,7 +4304,7 @@
         <v>nrna_94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="15"/>
@@ -4307,7 +4334,7 @@
         <v>nrna_95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="15"/>
@@ -4337,7 +4364,7 @@
         <v>nrna_96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="15"/>
@@ -4367,7 +4394,7 @@
         <v>nrna_97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="15"/>
@@ -4397,7 +4424,7 @@
         <v>nrna_98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="15"/>
@@ -4427,7 +4454,7 @@
         <v>nrna_99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="15"/>
@@ -4457,7 +4484,7 @@
         <v>nrna_100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="15"/>
@@ -4487,7 +4514,7 @@
         <v>nrna_101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="15"/>
@@ -4517,7 +4544,7 @@
         <v>nrna_102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="15"/>
@@ -4547,7 +4574,7 @@
         <v>nrna_103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="15"/>
@@ -4577,7 +4604,7 @@
         <v>nrna_104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="15"/>
@@ -4607,7 +4634,7 @@
         <v>nrna_105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="15"/>
@@ -4637,7 +4664,7 @@
         <v>nrna_106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="15"/>
@@ -4667,7 +4694,7 @@
         <v>nrna_107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="15"/>
@@ -4697,7 +4724,7 @@
         <v>nrna_108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="15"/>
@@ -4727,7 +4754,7 @@
         <v>nrna_109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="15"/>
@@ -4757,7 +4784,7 @@
         <v>nrna_110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="15"/>
@@ -4787,7 +4814,7 @@
         <v>nrna_111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="15"/>
@@ -4817,7 +4844,7 @@
         <v>nrna_112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="15"/>
@@ -4847,7 +4874,7 @@
         <v>nrna_113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="15"/>
@@ -4877,7 +4904,7 @@
         <v>nrna_114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" ref="D115:D124" si="16">"test"&amp;A115&amp;"@test.de"</f>
@@ -4907,7 +4934,7 @@
         <v>nrna_115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="16"/>
@@ -4937,7 +4964,7 @@
         <v>nrna_116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="16"/>
@@ -4967,7 +4994,7 @@
         <v>nrna_117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="16"/>
@@ -4997,7 +5024,7 @@
         <v>nrna_118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="16"/>
@@ -5027,7 +5054,7 @@
         <v>nrna_119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="16"/>
@@ -5057,7 +5084,7 @@
         <v>nrna_120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="16"/>
@@ -5087,7 +5114,7 @@
         <v>nrna_121</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="16"/>
@@ -5117,7 +5144,7 @@
         <v>nrna_122</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="16"/>
@@ -5147,7 +5174,7 @@
         <v>nrna_123</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="16"/>
@@ -5177,7 +5204,7 @@
         <v>nrna_124</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" ref="D125:D142" si="17">"test"&amp;A125&amp;"@test.de"</f>
@@ -5207,7 +5234,7 @@
         <v>nrna_125</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="17"/>
@@ -5237,7 +5264,7 @@
         <v>nrna_126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="17"/>
@@ -5267,7 +5294,7 @@
         <v>nrna_127</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="17"/>
@@ -5297,7 +5324,7 @@
         <v>nrna_128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="17"/>
@@ -5327,7 +5354,7 @@
         <v>nrna_129</v>
       </c>
       <c r="C130" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="17"/>
@@ -5353,11 +5380,11 @@
         <v>130</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" ref="B131:B187" si="18">"nrna"&amp;IF($A131&lt;10,"_0","_")&amp;$A131</f>
+        <f t="shared" ref="B131:B194" si="18">"nrna"&amp;IF($A131&lt;10,"_0","_")&amp;$A131</f>
         <v>nrna_130</v>
       </c>
       <c r="C131" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="17"/>
@@ -5370,7 +5397,7 @@
         <v>12345703</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131:G187" si="19">"nrna"&amp;IF($A131&lt;10,"_0","_"&amp;"")&amp;$A131</f>
+        <f t="shared" ref="G131:G194" si="19">"nrna"&amp;IF($A131&lt;10,"_0","_"&amp;"")&amp;$A131</f>
         <v>nrna_130</v>
       </c>
       <c r="H131">
@@ -5387,7 +5414,7 @@
         <v>nrna_131</v>
       </c>
       <c r="C132" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="17"/>
@@ -5417,7 +5444,7 @@
         <v>nrna_132</v>
       </c>
       <c r="C133" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="17"/>
@@ -5447,7 +5474,7 @@
         <v>nrna_133</v>
       </c>
       <c r="C134" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="17"/>
@@ -5477,7 +5504,7 @@
         <v>nrna_134</v>
       </c>
       <c r="C135" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="17"/>
@@ -5507,7 +5534,7 @@
         <v>nrna_135</v>
       </c>
       <c r="C136" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="17"/>
@@ -5537,7 +5564,7 @@
         <v>nrna_136</v>
       </c>
       <c r="C137" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="17"/>
@@ -5567,7 +5594,7 @@
         <v>nrna_137</v>
       </c>
       <c r="C138" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="17"/>
@@ -5597,7 +5624,7 @@
         <v>nrna_138</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="17"/>
@@ -5627,7 +5654,7 @@
         <v>nrna_139</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="17"/>
@@ -5657,7 +5684,7 @@
         <v>nrna_140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="17"/>
@@ -5687,7 +5714,7 @@
         <v>nrna_141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="17"/>
@@ -5717,7 +5744,7 @@
         <v>nrna_142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" ref="D143:D144" si="21">"test"&amp;A143&amp;"@test.de"</f>
@@ -5747,7 +5774,7 @@
         <v>nrna_143</v>
       </c>
       <c r="C144" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="21"/>
@@ -5777,7 +5804,7 @@
         <v>nrna_144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" ref="D145" si="22">"test"&amp;A145&amp;"@test.de"</f>
@@ -5807,7 +5834,7 @@
         <v>nrna_145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" ref="D146" si="23">"test"&amp;A146&amp;"@test.de"</f>
@@ -5837,7 +5864,7 @@
         <v>nrna_146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" ref="D147" si="24">"test"&amp;A147&amp;"@test.de"</f>
@@ -5867,7 +5894,7 @@
         <v>nrna_147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" ref="D148" si="25">"test"&amp;A148&amp;"@test.de"</f>
@@ -5897,7 +5924,7 @@
         <v>nrna_148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" ref="D149" si="26">"test"&amp;A149&amp;"@test.de"</f>
@@ -5927,7 +5954,7 @@
         <v>nrna_149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" ref="D150" si="27">"test"&amp;A150&amp;"@test.de"</f>
@@ -5957,7 +5984,7 @@
         <v>nrna_150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" ref="D151" si="28">"test"&amp;A151&amp;"@test.de"</f>
@@ -5987,7 +6014,7 @@
         <v>nrna_151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" ref="D152" si="30">"test"&amp;A152&amp;"@test.de"</f>
@@ -6017,7 +6044,7 @@
         <v>nrna_152</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" ref="D153" si="31">"test"&amp;A153&amp;"@test.de"</f>
@@ -6047,7 +6074,7 @@
         <v>nrna_153</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" ref="D154" si="32">"test"&amp;A154&amp;"@test.de"</f>
@@ -6077,7 +6104,7 @@
         <v>nrna_154</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" ref="D155" si="33">"test"&amp;A155&amp;"@test.de"</f>
@@ -6107,7 +6134,7 @@
         <v>nrna_155</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" ref="D156:D157" si="34">"test"&amp;A156&amp;"@test.de"</f>
@@ -6137,7 +6164,7 @@
         <v>nrna_156</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="34"/>
@@ -6167,7 +6194,7 @@
         <v>nrna_157</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" ref="D158:D159" si="35">"test"&amp;A158&amp;"@test.de"</f>
@@ -6197,7 +6224,7 @@
         <v>nrna_158</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="35"/>
@@ -6227,7 +6254,7 @@
         <v>nrna_159</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" ref="D160:D161" si="36">"test"&amp;A160&amp;"@test.de"</f>
@@ -6257,7 +6284,7 @@
         <v>nrna_160</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="36"/>
@@ -6287,7 +6314,7 @@
         <v>nrna_161</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" ref="D162" si="38">"test"&amp;A162&amp;"@test.de"</f>
@@ -6317,7 +6344,7 @@
         <v>nrna_162</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" ref="D163" si="40">"test"&amp;A163&amp;"@test.de"</f>
@@ -6347,7 +6374,7 @@
         <v>nrna_163</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" ref="D164:D170" si="42">"test"&amp;A164&amp;"@test.de"</f>
@@ -6377,7 +6404,7 @@
         <v>nrna_164</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="42"/>
@@ -6407,7 +6434,7 @@
         <v>nrna_165</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="42"/>
@@ -6437,7 +6464,7 @@
         <v>nrna_166</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="42"/>
@@ -6467,7 +6494,7 @@
         <v>nrna_167</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="42"/>
@@ -6497,7 +6524,7 @@
         <v>nrna_168</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="42"/>
@@ -6527,7 +6554,7 @@
         <v>nrna_169</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="42"/>
@@ -6557,7 +6584,7 @@
         <v>nrna_170</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" ref="D171" si="44">"test"&amp;A171&amp;"@test.de"</f>
@@ -6579,7 +6606,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f t="shared" ref="A172:A187" si="45">A171+1</f>
+        <f t="shared" ref="A172:A196" si="45">A171+1</f>
         <v>171</v>
       </c>
       <c r="B172" t="str">
@@ -6587,7 +6614,7 @@
         <v>nrna_171</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" ref="D172" si="46">"test"&amp;A172&amp;"@test.de"</f>
@@ -6617,7 +6644,7 @@
         <v>nrna_172</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" ref="D173" si="47">"test"&amp;A173&amp;"@test.de"</f>
@@ -6647,7 +6674,7 @@
         <v>nrna_173</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" ref="D174" si="48">"test"&amp;A174&amp;"@test.de"</f>
@@ -6677,7 +6704,7 @@
         <v>nrna_174</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" ref="D175:D177" si="49">"test"&amp;A175&amp;"@test.de"</f>
@@ -6707,7 +6734,7 @@
         <v>nrna_175</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="49"/>
@@ -6737,7 +6764,7 @@
         <v>nrna_176</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="49"/>
@@ -6767,7 +6794,7 @@
         <v>nrna_177</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" ref="D178" si="50">"test"&amp;A178&amp;"@test.de"</f>
@@ -6797,7 +6824,7 @@
         <v>nrna_178</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" ref="D179" si="51">"test"&amp;A179&amp;"@test.de"</f>
@@ -6827,7 +6854,7 @@
         <v>nrna_179</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" ref="D180" si="52">"test"&amp;A180&amp;"@test.de"</f>
@@ -6857,7 +6884,7 @@
         <v>nrna_180</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" ref="D181" si="53">"test"&amp;A181&amp;"@test.de"</f>
@@ -6887,7 +6914,7 @@
         <v>nrna_181</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D182" t="str">
         <f t="shared" ref="D182" si="54">"test"&amp;A182&amp;"@test.de"</f>
@@ -6917,7 +6944,7 @@
         <v>nrna_182</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D183" t="str">
         <f t="shared" ref="D183" si="55">"test"&amp;A183&amp;"@test.de"</f>
@@ -6947,7 +6974,7 @@
         <v>nrna_183</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D184" t="str">
         <f t="shared" ref="D184" si="56">"test"&amp;A184&amp;"@test.de"</f>
@@ -6977,7 +7004,7 @@
         <v>nrna_184</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" ref="D185" si="57">"test"&amp;A185&amp;"@test.de"</f>
@@ -7007,7 +7034,7 @@
         <v>nrna_185</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" ref="D186" si="58">"test"&amp;A186&amp;"@test.de"</f>
@@ -7037,7 +7064,7 @@
         <v>nrna_186</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" ref="D187" si="59">"test"&amp;A187&amp;"@test.de"</f>
@@ -7054,6 +7081,276 @@
         <v>nrna_186</v>
       </c>
       <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" si="45"/>
+        <v>187</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_187</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" ref="D188" si="60">"test"&amp;A188&amp;"@test.de"</f>
+        <v>test187@test.de</v>
+      </c>
+      <c r="E188" t="s">
+        <v>8</v>
+      </c>
+      <c r="F188">
+        <v>12345724</v>
+      </c>
+      <c r="G188" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_187</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" si="45"/>
+        <v>188</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_188</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" ref="D189" si="61">"test"&amp;A189&amp;"@test.de"</f>
+        <v>test188@test.de</v>
+      </c>
+      <c r="E189" t="s">
+        <v>8</v>
+      </c>
+      <c r="F189">
+        <v>12345724</v>
+      </c>
+      <c r="G189" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_188</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" si="45"/>
+        <v>189</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_189</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" ref="D190" si="62">"test"&amp;A190&amp;"@test.de"</f>
+        <v>test189@test.de</v>
+      </c>
+      <c r="E190" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190">
+        <v>12345724</v>
+      </c>
+      <c r="G190" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_189</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" si="45"/>
+        <v>190</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_190</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" ref="D191" si="63">"test"&amp;A191&amp;"@test.de"</f>
+        <v>test190@test.de</v>
+      </c>
+      <c r="E191" t="s">
+        <v>8</v>
+      </c>
+      <c r="F191">
+        <v>12345724</v>
+      </c>
+      <c r="G191" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_190</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" si="45"/>
+        <v>191</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_191</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D192" t="str">
+        <f t="shared" ref="D192" si="64">"test"&amp;A192&amp;"@test.de"</f>
+        <v>test191@test.de</v>
+      </c>
+      <c r="E192" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192">
+        <v>12345724</v>
+      </c>
+      <c r="G192" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_191</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" si="45"/>
+        <v>192</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_192</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D193" t="str">
+        <f t="shared" ref="D193:D194" si="65">"test"&amp;A193&amp;"@test.de"</f>
+        <v>test192@test.de</v>
+      </c>
+      <c r="E193" t="s">
+        <v>8</v>
+      </c>
+      <c r="F193">
+        <v>12345724</v>
+      </c>
+      <c r="G193" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_192</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" si="45"/>
+        <v>193</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" si="18"/>
+        <v>nrna_193</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D194" t="str">
+        <f t="shared" si="65"/>
+        <v>test193@test.de</v>
+      </c>
+      <c r="E194" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194">
+        <v>12345724</v>
+      </c>
+      <c r="G194" t="str">
+        <f t="shared" si="19"/>
+        <v>nrna_193</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" si="45"/>
+        <v>194</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" ref="B195:B196" si="66">"nrna"&amp;IF($A195&lt;10,"_0","_")&amp;$A195</f>
+        <v>nrna_194</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D195" t="str">
+        <f t="shared" ref="D195" si="67">"test"&amp;A195&amp;"@test.de"</f>
+        <v>test194@test.de</v>
+      </c>
+      <c r="E195" t="s">
+        <v>8</v>
+      </c>
+      <c r="F195">
+        <v>12345724</v>
+      </c>
+      <c r="G195" t="str">
+        <f t="shared" ref="G195:G196" si="68">"nrna"&amp;IF($A195&lt;10,"_0","_"&amp;"")&amp;$A195</f>
+        <v>nrna_194</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" si="45"/>
+        <v>195</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" si="66"/>
+        <v>nrna_195</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D196" t="str">
+        <f t="shared" ref="D196" si="69">"test"&amp;A196&amp;"@test.de"</f>
+        <v>test195@test.de</v>
+      </c>
+      <c r="E196" t="s">
+        <v>8</v>
+      </c>
+      <c r="F196">
+        <v>12345724</v>
+      </c>
+      <c r="G196" t="str">
+        <f t="shared" si="68"/>
+        <v>nrna_195</v>
+      </c>
+      <c r="H196">
         <v>0</v>
       </c>
     </row>

--- a/storage/csv_files/global_candidates.xlsx
+++ b/storage/csv_files/global_candidates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="220">
   <si>
     <t>sn</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Oceania</t>
   </si>
   <si>
-    <t>Humla Simikot</t>
-  </si>
-  <si>
     <t>Janakpur City</t>
   </si>
   <si>
@@ -649,6 +646,39 @@
   </si>
   <si>
     <t>Sangina Baidya</t>
+  </si>
+  <si>
+    <t>Sompal Kami</t>
+  </si>
+  <si>
+    <t>Niru Thapa  (Women Football Captain)</t>
+  </si>
+  <si>
+    <t>Paras Khadka</t>
+  </si>
+  <si>
+    <t>Sambhujit Baskota</t>
+  </si>
+  <si>
+    <t>Basundhara Bhusal</t>
+  </si>
+  <si>
+    <t>Sanchihta Luitel</t>
+  </si>
+  <si>
+    <t>Aruna Lama</t>
+  </si>
+  <si>
+    <t>Rima Bishwokarma</t>
+  </si>
+  <si>
+    <t>Santoshi Shrestha</t>
+  </si>
+  <si>
+    <t>Minu Gurung</t>
+  </si>
+  <si>
+    <t>Ram Krishna Dhakal</t>
   </si>
 </sst>
 </file>
@@ -1199,9 +1229,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1239,7 +1269,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1311,7 +1341,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1461,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1514,7 +1544,7 @@
         <v>nrna_01</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" t="str">
         <f>"test"&amp;A2&amp;"@test.de"</f>
@@ -1544,7 +1574,7 @@
         <v>nrna_02</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D28" si="1">"test"&amp;A3&amp;"@test.de"</f>
@@ -1694,7 +1724,7 @@
         <v>nrna_07</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
@@ -1724,7 +1754,7 @@
         <v>nrna_08</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
@@ -1754,7 +1784,7 @@
         <v>nrna_09</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
@@ -1784,7 +1814,7 @@
         <v>nrna_10</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
@@ -1814,7 +1844,7 @@
         <v>nrna_11</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
@@ -1844,7 +1874,7 @@
         <v>nrna_12</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
@@ -1874,7 +1904,7 @@
         <v>nrna_13</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
@@ -1904,7 +1934,7 @@
         <v>nrna_14</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
@@ -1934,7 +1964,7 @@
         <v>nrna_15</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
@@ -1964,7 +1994,7 @@
         <v>nrna_16</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
@@ -1994,7 +2024,7 @@
         <v>nrna_17</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
@@ -2024,7 +2054,7 @@
         <v>nrna_18</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
@@ -2054,7 +2084,7 @@
         <v>nrna_19</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
@@ -2084,7 +2114,7 @@
         <v>nrna_20</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
@@ -2114,7 +2144,7 @@
         <v>nrna_21</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
@@ -2144,7 +2174,7 @@
         <v>nrna_22</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -2174,7 +2204,7 @@
         <v>nrna_23</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
@@ -2204,7 +2234,7 @@
         <v>nrna_24</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
@@ -2234,7 +2264,7 @@
         <v>nrna_25</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -2264,7 +2294,7 @@
         <v>nrna_26</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
@@ -2294,7 +2324,7 @@
         <v>nrna_27</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
@@ -2324,7 +2354,7 @@
         <v>nrna_28</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" ref="D29" si="4">"test"&amp;A29&amp;"@test.de"</f>
@@ -2354,7 +2384,7 @@
         <v>nrna_29</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" ref="D30:D33" si="5">"test"&amp;A30&amp;"@test.de"</f>
@@ -2384,7 +2414,7 @@
         <v>nrna_30</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="5"/>
@@ -2414,7 +2444,7 @@
         <v>nrna_31</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="5"/>
@@ -2444,7 +2474,7 @@
         <v>nrna_32</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="5"/>
@@ -2474,7 +2504,7 @@
         <v>nrna_33</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ref="D34:D38" si="6">"test"&amp;A34&amp;"@test.de"</f>
@@ -2504,7 +2534,7 @@
         <v>nrna_34</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="6"/>
@@ -2534,7 +2564,7 @@
         <v>nrna_35</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="6"/>
@@ -2564,7 +2594,7 @@
         <v>nrna_36</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="6"/>
@@ -2594,7 +2624,7 @@
         <v>nrna_37</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="6"/>
@@ -2624,7 +2654,7 @@
         <v>nrna_38</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ref="D39:D58" si="7">"test"&amp;A39&amp;"@test.de"</f>
@@ -2654,7 +2684,7 @@
         <v>nrna_39</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="7"/>
@@ -2684,7 +2714,7 @@
         <v>nrna_40</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="7"/>
@@ -2714,7 +2744,7 @@
         <v>nrna_41</v>
       </c>
       <c r="C42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="7"/>
@@ -2744,7 +2774,7 @@
         <v>nrna_42</v>
       </c>
       <c r="C43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="7"/>
@@ -2774,7 +2804,7 @@
         <v>nrna_43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="7"/>
@@ -2804,7 +2834,7 @@
         <v>nrna_44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="7"/>
@@ -2834,7 +2864,7 @@
         <v>nrna_45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="7"/>
@@ -2864,7 +2894,7 @@
         <v>nrna_46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="7"/>
@@ -2894,7 +2924,7 @@
         <v>nrna_47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="7"/>
@@ -2924,7 +2954,7 @@
         <v>nrna_48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="7"/>
@@ -2954,7 +2984,7 @@
         <v>nrna_49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="7"/>
@@ -2984,7 +3014,7 @@
         <v>nrna_50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="7"/>
@@ -3014,7 +3044,7 @@
         <v>nrna_51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="7"/>
@@ -3044,7 +3074,7 @@
         <v>nrna_52</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="7"/>
@@ -3074,14 +3104,14 @@
         <v>nrna_53</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="7"/>
         <v>test53@test.de</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F54">
         <v>12345703</v>
@@ -3104,7 +3134,7 @@
         <v>nrna_54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="7"/>
@@ -3134,14 +3164,14 @@
         <v>nrna_55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="7"/>
         <v>test55@test.de</v>
       </c>
       <c r="E56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F56">
         <v>12345703</v>
@@ -3164,7 +3194,7 @@
         <v>nrna_56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="7"/>
@@ -3194,7 +3224,7 @@
         <v>nrna_57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="7"/>
@@ -3224,14 +3254,14 @@
         <v>nrna_58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" ref="D59" si="8">"test"&amp;A59&amp;"@test.de"</f>
         <v>test58@test.de</v>
       </c>
       <c r="E59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F59">
         <v>12345703</v>
@@ -3254,7 +3284,7 @@
         <v>nrna_59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" ref="D60:D61" si="9">"test"&amp;A60&amp;"@test.de"</f>
@@ -3284,7 +3314,7 @@
         <v>nrna_60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="9"/>
@@ -3314,7 +3344,7 @@
         <v>nrna_61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" ref="D62:D65" si="10">"test"&amp;A62&amp;"@test.de"</f>
@@ -3344,14 +3374,14 @@
         <v>nrna_62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="10"/>
         <v>test62@test.de</v>
       </c>
       <c r="E63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F63">
         <v>12345703</v>
@@ -3374,7 +3404,7 @@
         <v>nrna_63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="10"/>
@@ -3404,14 +3434,14 @@
         <v>nrna_64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="10"/>
         <v>test64@test.de</v>
       </c>
       <c r="E65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F65">
         <v>12345703</v>
@@ -3434,7 +3464,7 @@
         <v>nrna_65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" ref="D66:D71" si="11">"test"&amp;A66&amp;"@test.de"</f>
@@ -3464,7 +3494,7 @@
         <v>nrna_66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="11"/>
@@ -3486,7 +3516,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A132" si="14">A67+1</f>
+        <f t="shared" ref="A68:A131" si="14">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" t="str">
@@ -3494,14 +3524,14 @@
         <v>nrna_67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="11"/>
         <v>test67@test.de</v>
       </c>
       <c r="E68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F68">
         <v>12345703</v>
@@ -3524,7 +3554,7 @@
         <v>nrna_68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="11"/>
@@ -3554,7 +3584,7 @@
         <v>nrna_69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="11"/>
@@ -3584,7 +3614,7 @@
         <v>nrna_70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="11"/>
@@ -3614,7 +3644,7 @@
         <v>nrna_71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" ref="D72:D114" si="15">"test"&amp;A72&amp;"@test.de"</f>
@@ -3644,7 +3674,7 @@
         <v>nrna_72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="15"/>
@@ -3674,7 +3704,7 @@
         <v>nrna_73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="15"/>
@@ -3704,7 +3734,7 @@
         <v>nrna_74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="15"/>
@@ -3734,7 +3764,7 @@
         <v>nrna_75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="15"/>
@@ -3764,7 +3794,7 @@
         <v>nrna_76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="15"/>
@@ -3794,7 +3824,7 @@
         <v>nrna_77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="15"/>
@@ -3824,7 +3854,7 @@
         <v>nrna_78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="15"/>
@@ -3854,7 +3884,7 @@
         <v>nrna_79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="15"/>
@@ -3884,7 +3914,7 @@
         <v>nrna_80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="15"/>
@@ -3914,7 +3944,7 @@
         <v>nrna_81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="15"/>
@@ -3944,7 +3974,7 @@
         <v>nrna_82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="15"/>
@@ -3974,7 +4004,7 @@
         <v>nrna_83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="15"/>
@@ -4004,7 +4034,7 @@
         <v>nrna_84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="15"/>
@@ -4034,7 +4064,7 @@
         <v>nrna_85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="15"/>
@@ -4064,7 +4094,7 @@
         <v>nrna_86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="15"/>
@@ -4094,7 +4124,7 @@
         <v>nrna_87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="15"/>
@@ -4124,7 +4154,7 @@
         <v>nrna_88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="15"/>
@@ -4154,7 +4184,7 @@
         <v>nrna_89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="15"/>
@@ -4184,7 +4214,7 @@
         <v>nrna_90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="15"/>
@@ -4214,7 +4244,7 @@
         <v>nrna_91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="15"/>
@@ -4244,7 +4274,7 @@
         <v>nrna_92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="15"/>
@@ -4274,7 +4304,7 @@
         <v>nrna_93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="15"/>
@@ -4304,7 +4334,7 @@
         <v>nrna_94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="15"/>
@@ -4334,7 +4364,7 @@
         <v>nrna_95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="15"/>
@@ -4364,7 +4394,7 @@
         <v>nrna_96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="15"/>
@@ -4394,7 +4424,7 @@
         <v>nrna_97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="15"/>
@@ -4424,7 +4454,7 @@
         <v>nrna_98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="15"/>
@@ -4454,7 +4484,7 @@
         <v>nrna_99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="15"/>
@@ -4484,7 +4514,7 @@
         <v>nrna_100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="15"/>
@@ -4514,7 +4544,7 @@
         <v>nrna_101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="15"/>
@@ -4544,7 +4574,7 @@
         <v>nrna_102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="15"/>
@@ -4574,7 +4604,7 @@
         <v>nrna_103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="15"/>
@@ -4604,7 +4634,7 @@
         <v>nrna_104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="15"/>
@@ -4634,7 +4664,7 @@
         <v>nrna_105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="15"/>
@@ -4664,7 +4694,7 @@
         <v>nrna_106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="15"/>
@@ -4694,7 +4724,7 @@
         <v>nrna_107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="15"/>
@@ -4724,7 +4754,7 @@
         <v>nrna_108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="15"/>
@@ -4754,7 +4784,7 @@
         <v>nrna_109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="15"/>
@@ -4784,7 +4814,7 @@
         <v>nrna_110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="15"/>
@@ -4814,7 +4844,7 @@
         <v>nrna_111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="15"/>
@@ -4844,7 +4874,7 @@
         <v>nrna_112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="15"/>
@@ -4874,7 +4904,7 @@
         <v>nrna_113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="15"/>
@@ -4904,7 +4934,7 @@
         <v>nrna_114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" ref="D115:D124" si="16">"test"&amp;A115&amp;"@test.de"</f>
@@ -4934,7 +4964,7 @@
         <v>nrna_115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="16"/>
@@ -4964,7 +4994,7 @@
         <v>nrna_116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="16"/>
@@ -4994,7 +5024,7 @@
         <v>nrna_117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="16"/>
@@ -5024,7 +5054,7 @@
         <v>nrna_118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="16"/>
@@ -5054,7 +5084,7 @@
         <v>nrna_119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="16"/>
@@ -5084,7 +5114,7 @@
         <v>nrna_120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="16"/>
@@ -5114,7 +5144,7 @@
         <v>nrna_121</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="16"/>
@@ -5144,7 +5174,7 @@
         <v>nrna_122</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="16"/>
@@ -5174,7 +5204,7 @@
         <v>nrna_123</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="16"/>
@@ -5204,7 +5234,7 @@
         <v>nrna_124</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" ref="D125:D142" si="17">"test"&amp;A125&amp;"@test.de"</f>
@@ -5234,7 +5264,7 @@
         <v>nrna_125</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="17"/>
@@ -5264,7 +5294,7 @@
         <v>nrna_126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="17"/>
@@ -5294,7 +5324,7 @@
         <v>nrna_127</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="17"/>
@@ -5324,7 +5354,7 @@
         <v>nrna_128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="17"/>
@@ -5354,7 +5384,7 @@
         <v>nrna_129</v>
       </c>
       <c r="C130" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="17"/>
@@ -5384,7 +5414,7 @@
         <v>nrna_130</v>
       </c>
       <c r="C131" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="17"/>
@@ -5406,7 +5436,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="A132:A195" si="20">A131+1</f>
         <v>131</v>
       </c>
       <c r="B132" t="str">
@@ -5414,7 +5444,7 @@
         <v>nrna_131</v>
       </c>
       <c r="C132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="17"/>
@@ -5436,7 +5466,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" ref="A133:A151" si="20">A132+1</f>
+        <f t="shared" si="20"/>
         <v>132</v>
       </c>
       <c r="B133" t="str">
@@ -5444,7 +5474,7 @@
         <v>nrna_132</v>
       </c>
       <c r="C133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="17"/>
@@ -5474,7 +5504,7 @@
         <v>nrna_133</v>
       </c>
       <c r="C134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="17"/>
@@ -5504,7 +5534,7 @@
         <v>nrna_134</v>
       </c>
       <c r="C135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="17"/>
@@ -5534,7 +5564,7 @@
         <v>nrna_135</v>
       </c>
       <c r="C136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="17"/>
@@ -5564,7 +5594,7 @@
         <v>nrna_136</v>
       </c>
       <c r="C137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="17"/>
@@ -5594,7 +5624,7 @@
         <v>nrna_137</v>
       </c>
       <c r="C138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="17"/>
@@ -5624,7 +5654,7 @@
         <v>nrna_138</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="17"/>
@@ -5654,7 +5684,7 @@
         <v>nrna_139</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="17"/>
@@ -5684,7 +5714,7 @@
         <v>nrna_140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="17"/>
@@ -5714,7 +5744,7 @@
         <v>nrna_141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="17"/>
@@ -5744,7 +5774,7 @@
         <v>nrna_142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" ref="D143:D144" si="21">"test"&amp;A143&amp;"@test.de"</f>
@@ -5774,7 +5804,7 @@
         <v>nrna_143</v>
       </c>
       <c r="C144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="21"/>
@@ -5804,7 +5834,7 @@
         <v>nrna_144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" ref="D145" si="22">"test"&amp;A145&amp;"@test.de"</f>
@@ -5834,7 +5864,7 @@
         <v>nrna_145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" ref="D146" si="23">"test"&amp;A146&amp;"@test.de"</f>
@@ -5864,7 +5894,7 @@
         <v>nrna_146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" ref="D147" si="24">"test"&amp;A147&amp;"@test.de"</f>
@@ -5894,7 +5924,7 @@
         <v>nrna_147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" ref="D148" si="25">"test"&amp;A148&amp;"@test.de"</f>
@@ -5924,7 +5954,7 @@
         <v>nrna_148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" ref="D149" si="26">"test"&amp;A149&amp;"@test.de"</f>
@@ -5954,7 +5984,7 @@
         <v>nrna_149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" ref="D150" si="27">"test"&amp;A150&amp;"@test.de"</f>
@@ -5984,7 +6014,7 @@
         <v>nrna_150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" ref="D151" si="28">"test"&amp;A151&amp;"@test.de"</f>
@@ -6006,7 +6036,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
-        <f t="shared" ref="A152:A160" si="29">A151+1</f>
+        <f t="shared" si="20"/>
         <v>151</v>
       </c>
       <c r="B152" t="str">
@@ -6014,10 +6044,10 @@
         <v>nrna_151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" ref="D152" si="30">"test"&amp;A152&amp;"@test.de"</f>
+        <f t="shared" ref="D152" si="29">"test"&amp;A152&amp;"@test.de"</f>
         <v>test151@test.de</v>
       </c>
       <c r="E152" t="s">
@@ -6036,7 +6066,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
-        <f t="shared" si="29"/>
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
       <c r="B153" t="str">
@@ -6044,10 +6074,10 @@
         <v>nrna_152</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" ref="D153" si="31">"test"&amp;A153&amp;"@test.de"</f>
+        <f t="shared" ref="D153" si="30">"test"&amp;A153&amp;"@test.de"</f>
         <v>test152@test.de</v>
       </c>
       <c r="E153" t="s">
@@ -6066,7 +6096,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
-        <f t="shared" si="29"/>
+        <f t="shared" si="20"/>
         <v>153</v>
       </c>
       <c r="B154" t="str">
@@ -6074,10 +6104,10 @@
         <v>nrna_153</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" ref="D154" si="32">"test"&amp;A154&amp;"@test.de"</f>
+        <f t="shared" ref="D154" si="31">"test"&amp;A154&amp;"@test.de"</f>
         <v>test153@test.de</v>
       </c>
       <c r="E154" t="s">
@@ -6096,7 +6126,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
-        <f t="shared" si="29"/>
+        <f t="shared" si="20"/>
         <v>154</v>
       </c>
       <c r="B155" t="str">
@@ -6104,10 +6134,10 @@
         <v>nrna_154</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" ref="D155" si="33">"test"&amp;A155&amp;"@test.de"</f>
+        <f t="shared" ref="D155" si="32">"test"&amp;A155&amp;"@test.de"</f>
         <v>test154@test.de</v>
       </c>
       <c r="E155" t="s">
@@ -6126,7 +6156,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
-        <f t="shared" si="29"/>
+        <f t="shared" si="20"/>
         <v>155</v>
       </c>
       <c r="B156" t="str">
@@ -6134,10 +6164,10 @@
         <v>nrna_155</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" ref="D156:D157" si="34">"test"&amp;A156&amp;"@test.de"</f>
+        <f t="shared" ref="D156:D157" si="33">"test"&amp;A156&amp;"@test.de"</f>
         <v>test155@test.de</v>
       </c>
       <c r="E156" t="s">
@@ -6156,7 +6186,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
-        <f t="shared" si="29"/>
+        <f t="shared" si="20"/>
         <v>156</v>
       </c>
       <c r="B157" t="str">
@@ -6164,10 +6194,10 @@
         <v>nrna_156</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>test156@test.de</v>
       </c>
       <c r="E157" t="s">
@@ -6186,7 +6216,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
-        <f t="shared" si="29"/>
+        <f t="shared" si="20"/>
         <v>157</v>
       </c>
       <c r="B158" t="str">
@@ -6194,10 +6224,10 @@
         <v>nrna_157</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" ref="D158:D159" si="35">"test"&amp;A158&amp;"@test.de"</f>
+        <f t="shared" ref="D158:D159" si="34">"test"&amp;A158&amp;"@test.de"</f>
         <v>test157@test.de</v>
       </c>
       <c r="E158" t="s">
@@ -6216,7 +6246,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
-        <f t="shared" si="29"/>
+        <f t="shared" si="20"/>
         <v>158</v>
       </c>
       <c r="B159" t="str">
@@ -6224,10 +6254,10 @@
         <v>nrna_158</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>test158@test.de</v>
       </c>
       <c r="E159" t="s">
@@ -6246,7 +6276,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
-        <f t="shared" si="29"/>
+        <f t="shared" si="20"/>
         <v>159</v>
       </c>
       <c r="B160" t="str">
@@ -6254,10 +6284,10 @@
         <v>nrna_159</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" ref="D160:D161" si="36">"test"&amp;A160&amp;"@test.de"</f>
+        <f t="shared" ref="D160:D161" si="35">"test"&amp;A160&amp;"@test.de"</f>
         <v>test159@test.de</v>
       </c>
       <c r="E160" t="s">
@@ -6276,7 +6306,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
-        <f t="shared" ref="A161:A162" si="37">A160+1</f>
+        <f t="shared" si="20"/>
         <v>160</v>
       </c>
       <c r="B161" t="str">
@@ -6284,10 +6314,10 @@
         <v>nrna_160</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>test160@test.de</v>
       </c>
       <c r="E161" t="s">
@@ -6306,7 +6336,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
         <v>161</v>
       </c>
       <c r="B162" t="str">
@@ -6314,10 +6344,10 @@
         <v>nrna_161</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" ref="D162" si="38">"test"&amp;A162&amp;"@test.de"</f>
+        <f t="shared" ref="D162" si="36">"test"&amp;A162&amp;"@test.de"</f>
         <v>test161@test.de</v>
       </c>
       <c r="E162" t="s">
@@ -6336,7 +6366,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
-        <f t="shared" ref="A163" si="39">A162+1</f>
+        <f t="shared" si="20"/>
         <v>162</v>
       </c>
       <c r="B163" t="str">
@@ -6344,10 +6374,10 @@
         <v>nrna_162</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" ref="D163" si="40">"test"&amp;A163&amp;"@test.de"</f>
+        <f t="shared" ref="D163" si="37">"test"&amp;A163&amp;"@test.de"</f>
         <v>test162@test.de</v>
       </c>
       <c r="E163" t="s">
@@ -6366,7 +6396,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
-        <f t="shared" ref="A164:A170" si="41">A163+1</f>
+        <f t="shared" si="20"/>
         <v>163</v>
       </c>
       <c r="B164" t="str">
@@ -6374,10 +6404,10 @@
         <v>nrna_163</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" ref="D164:D170" si="42">"test"&amp;A164&amp;"@test.de"</f>
+        <f t="shared" ref="D164:D170" si="38">"test"&amp;A164&amp;"@test.de"</f>
         <v>test163@test.de</v>
       </c>
       <c r="E164" t="s">
@@ -6396,7 +6426,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>164</v>
       </c>
       <c r="B165" t="str">
@@ -6404,10 +6434,10 @@
         <v>nrna_164</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>test164@test.de</v>
       </c>
       <c r="E165" t="s">
@@ -6426,7 +6456,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>165</v>
       </c>
       <c r="B166" t="str">
@@ -6434,10 +6464,10 @@
         <v>nrna_165</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>test165@test.de</v>
       </c>
       <c r="E166" t="s">
@@ -6456,7 +6486,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>166</v>
       </c>
       <c r="B167" t="str">
@@ -6464,10 +6494,10 @@
         <v>nrna_166</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>test166@test.de</v>
       </c>
       <c r="E167" t="s">
@@ -6486,7 +6516,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>167</v>
       </c>
       <c r="B168" t="str">
@@ -6494,10 +6524,10 @@
         <v>nrna_167</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>test167@test.de</v>
       </c>
       <c r="E168" t="s">
@@ -6516,7 +6546,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>168</v>
       </c>
       <c r="B169" t="str">
@@ -6524,10 +6554,10 @@
         <v>nrna_168</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>test168@test.de</v>
       </c>
       <c r="E169" t="s">
@@ -6546,7 +6576,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>169</v>
       </c>
       <c r="B170" t="str">
@@ -6554,10 +6584,10 @@
         <v>nrna_169</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>test169@test.de</v>
       </c>
       <c r="E170" t="s">
@@ -6576,7 +6606,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
-        <f t="shared" ref="A171" si="43">A170+1</f>
+        <f t="shared" si="20"/>
         <v>170</v>
       </c>
       <c r="B171" t="str">
@@ -6584,10 +6614,10 @@
         <v>nrna_170</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" ref="D171" si="44">"test"&amp;A171&amp;"@test.de"</f>
+        <f t="shared" ref="D171" si="39">"test"&amp;A171&amp;"@test.de"</f>
         <v>test170@test.de</v>
       </c>
       <c r="E171" t="s">
@@ -6606,7 +6636,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f t="shared" ref="A172:A196" si="45">A171+1</f>
+        <f t="shared" si="20"/>
         <v>171</v>
       </c>
       <c r="B172" t="str">
@@ -6614,10 +6644,10 @@
         <v>nrna_171</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" ref="D172" si="46">"test"&amp;A172&amp;"@test.de"</f>
+        <f t="shared" ref="D172" si="40">"test"&amp;A172&amp;"@test.de"</f>
         <v>test171@test.de</v>
       </c>
       <c r="E172" t="s">
@@ -6636,7 +6666,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>172</v>
       </c>
       <c r="B173" t="str">
@@ -6644,10 +6674,10 @@
         <v>nrna_172</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" ref="D173" si="47">"test"&amp;A173&amp;"@test.de"</f>
+        <f t="shared" ref="D173" si="41">"test"&amp;A173&amp;"@test.de"</f>
         <v>test172@test.de</v>
       </c>
       <c r="E173" t="s">
@@ -6666,7 +6696,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>173</v>
       </c>
       <c r="B174" t="str">
@@ -6674,10 +6704,10 @@
         <v>nrna_173</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" ref="D174" si="48">"test"&amp;A174&amp;"@test.de"</f>
+        <f t="shared" ref="D174" si="42">"test"&amp;A174&amp;"@test.de"</f>
         <v>test173@test.de</v>
       </c>
       <c r="E174" t="s">
@@ -6696,7 +6726,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>174</v>
       </c>
       <c r="B175" t="str">
@@ -6704,10 +6734,10 @@
         <v>nrna_174</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" ref="D175:D177" si="49">"test"&amp;A175&amp;"@test.de"</f>
+        <f t="shared" ref="D175:D177" si="43">"test"&amp;A175&amp;"@test.de"</f>
         <v>test174@test.de</v>
       </c>
       <c r="E175" t="s">
@@ -6726,7 +6756,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>175</v>
       </c>
       <c r="B176" t="str">
@@ -6734,10 +6764,10 @@
         <v>nrna_175</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>test175@test.de</v>
       </c>
       <c r="E176" t="s">
@@ -6756,7 +6786,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>176</v>
       </c>
       <c r="B177" t="str">
@@ -6764,10 +6794,10 @@
         <v>nrna_176</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>test176@test.de</v>
       </c>
       <c r="E177" t="s">
@@ -6786,7 +6816,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>177</v>
       </c>
       <c r="B178" t="str">
@@ -6794,10 +6824,10 @@
         <v>nrna_177</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" ref="D178" si="50">"test"&amp;A178&amp;"@test.de"</f>
+        <f t="shared" ref="D178" si="44">"test"&amp;A178&amp;"@test.de"</f>
         <v>test177@test.de</v>
       </c>
       <c r="E178" t="s">
@@ -6816,7 +6846,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>178</v>
       </c>
       <c r="B179" t="str">
@@ -6824,10 +6854,10 @@
         <v>nrna_178</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" ref="D179" si="51">"test"&amp;A179&amp;"@test.de"</f>
+        <f t="shared" ref="D179" si="45">"test"&amp;A179&amp;"@test.de"</f>
         <v>test178@test.de</v>
       </c>
       <c r="E179" t="s">
@@ -6846,7 +6876,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>179</v>
       </c>
       <c r="B180" t="str">
@@ -6854,10 +6884,10 @@
         <v>nrna_179</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" ref="D180" si="52">"test"&amp;A180&amp;"@test.de"</f>
+        <f t="shared" ref="D180" si="46">"test"&amp;A180&amp;"@test.de"</f>
         <v>test179@test.de</v>
       </c>
       <c r="E180" t="s">
@@ -6876,7 +6906,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>180</v>
       </c>
       <c r="B181" t="str">
@@ -6884,10 +6914,10 @@
         <v>nrna_180</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" ref="D181" si="53">"test"&amp;A181&amp;"@test.de"</f>
+        <f t="shared" ref="D181" si="47">"test"&amp;A181&amp;"@test.de"</f>
         <v>test180@test.de</v>
       </c>
       <c r="E181" t="s">
@@ -6906,7 +6936,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>181</v>
       </c>
       <c r="B182" t="str">
@@ -6914,10 +6944,10 @@
         <v>nrna_181</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" ref="D182" si="54">"test"&amp;A182&amp;"@test.de"</f>
+        <f t="shared" ref="D182" si="48">"test"&amp;A182&amp;"@test.de"</f>
         <v>test181@test.de</v>
       </c>
       <c r="E182" t="s">
@@ -6936,7 +6966,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>182</v>
       </c>
       <c r="B183" t="str">
@@ -6944,10 +6974,10 @@
         <v>nrna_182</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" ref="D183" si="55">"test"&amp;A183&amp;"@test.de"</f>
+        <f t="shared" ref="D183" si="49">"test"&amp;A183&amp;"@test.de"</f>
         <v>test182@test.de</v>
       </c>
       <c r="E183" t="s">
@@ -6966,7 +6996,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>183</v>
       </c>
       <c r="B184" t="str">
@@ -6974,10 +7004,10 @@
         <v>nrna_183</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" ref="D184" si="56">"test"&amp;A184&amp;"@test.de"</f>
+        <f t="shared" ref="D184" si="50">"test"&amp;A184&amp;"@test.de"</f>
         <v>test183@test.de</v>
       </c>
       <c r="E184" t="s">
@@ -6996,7 +7026,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>184</v>
       </c>
       <c r="B185" t="str">
@@ -7004,10 +7034,10 @@
         <v>nrna_184</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" ref="D185" si="57">"test"&amp;A185&amp;"@test.de"</f>
+        <f t="shared" ref="D185" si="51">"test"&amp;A185&amp;"@test.de"</f>
         <v>test184@test.de</v>
       </c>
       <c r="E185" t="s">
@@ -7026,7 +7056,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>185</v>
       </c>
       <c r="B186" t="str">
@@ -7034,10 +7064,10 @@
         <v>nrna_185</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" ref="D186" si="58">"test"&amp;A186&amp;"@test.de"</f>
+        <f t="shared" ref="D186" si="52">"test"&amp;A186&amp;"@test.de"</f>
         <v>test185@test.de</v>
       </c>
       <c r="E186" t="s">
@@ -7056,7 +7086,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>186</v>
       </c>
       <c r="B187" t="str">
@@ -7064,10 +7094,10 @@
         <v>nrna_186</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" ref="D187" si="59">"test"&amp;A187&amp;"@test.de"</f>
+        <f t="shared" ref="D187" si="53">"test"&amp;A187&amp;"@test.de"</f>
         <v>test186@test.de</v>
       </c>
       <c r="E187" t="s">
@@ -7086,7 +7116,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>187</v>
       </c>
       <c r="B188" t="str">
@@ -7094,10 +7124,10 @@
         <v>nrna_187</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" ref="D188" si="60">"test"&amp;A188&amp;"@test.de"</f>
+        <f t="shared" ref="D188" si="54">"test"&amp;A188&amp;"@test.de"</f>
         <v>test187@test.de</v>
       </c>
       <c r="E188" t="s">
@@ -7116,7 +7146,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>188</v>
       </c>
       <c r="B189" t="str">
@@ -7124,10 +7154,10 @@
         <v>nrna_188</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" ref="D189" si="61">"test"&amp;A189&amp;"@test.de"</f>
+        <f t="shared" ref="D189" si="55">"test"&amp;A189&amp;"@test.de"</f>
         <v>test188@test.de</v>
       </c>
       <c r="E189" t="s">
@@ -7146,7 +7176,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>189</v>
       </c>
       <c r="B190" t="str">
@@ -7154,10 +7184,10 @@
         <v>nrna_189</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" ref="D190" si="62">"test"&amp;A190&amp;"@test.de"</f>
+        <f t="shared" ref="D190" si="56">"test"&amp;A190&amp;"@test.de"</f>
         <v>test189@test.de</v>
       </c>
       <c r="E190" t="s">
@@ -7176,7 +7206,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>190</v>
       </c>
       <c r="B191" t="str">
@@ -7184,10 +7214,10 @@
         <v>nrna_190</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" ref="D191" si="63">"test"&amp;A191&amp;"@test.de"</f>
+        <f t="shared" ref="D191" si="57">"test"&amp;A191&amp;"@test.de"</f>
         <v>test190@test.de</v>
       </c>
       <c r="E191" t="s">
@@ -7206,7 +7236,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>191</v>
       </c>
       <c r="B192" t="str">
@@ -7214,10 +7244,10 @@
         <v>nrna_191</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" ref="D192" si="64">"test"&amp;A192&amp;"@test.de"</f>
+        <f t="shared" ref="D192" si="58">"test"&amp;A192&amp;"@test.de"</f>
         <v>test191@test.de</v>
       </c>
       <c r="E192" t="s">
@@ -7236,7 +7266,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>192</v>
       </c>
       <c r="B193" t="str">
@@ -7244,10 +7274,10 @@
         <v>nrna_192</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" ref="D193:D194" si="65">"test"&amp;A193&amp;"@test.de"</f>
+        <f t="shared" ref="D193:D194" si="59">"test"&amp;A193&amp;"@test.de"</f>
         <v>test192@test.de</v>
       </c>
       <c r="E193" t="s">
@@ -7266,7 +7296,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>193</v>
       </c>
       <c r="B194" t="str">
@@ -7274,10 +7304,10 @@
         <v>nrna_193</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="59"/>
         <v>test193@test.de</v>
       </c>
       <c r="E194" t="s">
@@ -7296,18 +7326,18 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
-        <f t="shared" si="45"/>
+        <f t="shared" si="20"/>
         <v>194</v>
       </c>
       <c r="B195" t="str">
-        <f t="shared" ref="B195:B196" si="66">"nrna"&amp;IF($A195&lt;10,"_0","_")&amp;$A195</f>
+        <f t="shared" ref="B195:B206" si="60">"nrna"&amp;IF($A195&lt;10,"_0","_")&amp;$A195</f>
         <v>nrna_194</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" ref="D195" si="67">"test"&amp;A195&amp;"@test.de"</f>
+        <f t="shared" ref="D195" si="61">"test"&amp;A195&amp;"@test.de"</f>
         <v>test194@test.de</v>
       </c>
       <c r="E195" t="s">
@@ -7317,7 +7347,7 @@
         <v>12345724</v>
       </c>
       <c r="G195" t="str">
-        <f t="shared" ref="G195:G196" si="68">"nrna"&amp;IF($A195&lt;10,"_0","_"&amp;"")&amp;$A195</f>
+        <f t="shared" ref="G195:G206" si="62">"nrna"&amp;IF($A195&lt;10,"_0","_"&amp;"")&amp;$A195</f>
         <v>nrna_194</v>
       </c>
       <c r="H195">
@@ -7326,18 +7356,18 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="A196:A205" si="63">A195+1</f>
         <v>195</v>
       </c>
       <c r="B196" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>nrna_195</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" ref="D196" si="69">"test"&amp;A196&amp;"@test.de"</f>
+        <f t="shared" ref="D196" si="64">"test"&amp;A196&amp;"@test.de"</f>
         <v>test195@test.de</v>
       </c>
       <c r="E196" t="s">
@@ -7347,12 +7377,321 @@
         <v>12345724</v>
       </c>
       <c r="G196" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>nrna_195</v>
       </c>
       <c r="H196">
         <v>0</v>
       </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" si="63"/>
+        <v>196</v>
+      </c>
+      <c r="B197" s="2" t="str">
+        <f t="shared" si="60"/>
+        <v>nrna_196</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D197" s="2" t="str">
+        <f t="shared" ref="D197" si="65">"test"&amp;A197&amp;"@test.de"</f>
+        <v>test196@test.de</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F197" s="2">
+        <v>12345724</v>
+      </c>
+      <c r="G197" s="2" t="str">
+        <f t="shared" si="62"/>
+        <v>nrna_196</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" si="63"/>
+        <v>197</v>
+      </c>
+      <c r="B198" s="2" t="str">
+        <f t="shared" si="60"/>
+        <v>nrna_197</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D198" s="2" t="str">
+        <f t="shared" ref="D198" si="66">"test"&amp;A198&amp;"@test.de"</f>
+        <v>test197@test.de</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F198" s="2">
+        <v>12345724</v>
+      </c>
+      <c r="G198" s="2" t="str">
+        <f t="shared" si="62"/>
+        <v>nrna_197</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" si="63"/>
+        <v>198</v>
+      </c>
+      <c r="B199" s="2" t="str">
+        <f t="shared" si="60"/>
+        <v>nrna_198</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D199" s="2" t="str">
+        <f t="shared" ref="D199" si="67">"test"&amp;A199&amp;"@test.de"</f>
+        <v>test198@test.de</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199" s="2">
+        <v>12345724</v>
+      </c>
+      <c r="G199" s="2" t="str">
+        <f t="shared" si="62"/>
+        <v>nrna_198</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" si="63"/>
+        <v>199</v>
+      </c>
+      <c r="B200" s="2" t="str">
+        <f t="shared" si="60"/>
+        <v>nrna_199</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D200" s="2" t="str">
+        <f t="shared" ref="D200" si="68">"test"&amp;A200&amp;"@test.de"</f>
+        <v>test199@test.de</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F200" s="2">
+        <v>12345724</v>
+      </c>
+      <c r="G200" s="2" t="str">
+        <f t="shared" si="62"/>
+        <v>nrna_199</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f t="shared" ref="A201" si="69">A200+1</f>
+        <v>200</v>
+      </c>
+      <c r="B201" s="2" t="str">
+        <f t="shared" si="60"/>
+        <v>nrna_200</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D201" s="2" t="str">
+        <f t="shared" ref="D201" si="70">"test"&amp;A201&amp;"@test.de"</f>
+        <v>test200@test.de</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F201" s="2">
+        <v>12345724</v>
+      </c>
+      <c r="G201" s="2" t="str">
+        <f t="shared" si="62"/>
+        <v>nrna_200</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f t="shared" ref="A202:A206" si="71">A201+1</f>
+        <v>201</v>
+      </c>
+      <c r="B202" s="2" t="str">
+        <f t="shared" si="60"/>
+        <v>nrna_201</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D202" s="2" t="str">
+        <f t="shared" ref="D202:D206" si="72">"test"&amp;A202&amp;"@test.de"</f>
+        <v>test201@test.de</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F202" s="2">
+        <v>12345724</v>
+      </c>
+      <c r="G202" s="2" t="str">
+        <f t="shared" si="62"/>
+        <v>nrna_201</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f t="shared" si="71"/>
+        <v>202</v>
+      </c>
+      <c r="B203" s="2" t="str">
+        <f t="shared" si="60"/>
+        <v>nrna_202</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D203" s="2" t="str">
+        <f t="shared" si="72"/>
+        <v>test202@test.de</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203" s="2">
+        <v>12345724</v>
+      </c>
+      <c r="G203" s="2" t="str">
+        <f t="shared" si="62"/>
+        <v>nrna_202</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f t="shared" si="71"/>
+        <v>203</v>
+      </c>
+      <c r="B204" s="2" t="str">
+        <f t="shared" si="60"/>
+        <v>nrna_203</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D204" s="2" t="str">
+        <f t="shared" si="72"/>
+        <v>test203@test.de</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204" s="2">
+        <v>12345724</v>
+      </c>
+      <c r="G204" s="2" t="str">
+        <f t="shared" si="62"/>
+        <v>nrna_203</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f t="shared" si="71"/>
+        <v>204</v>
+      </c>
+      <c r="B205" s="2" t="str">
+        <f t="shared" si="60"/>
+        <v>nrna_204</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D205" s="2" t="str">
+        <f t="shared" si="72"/>
+        <v>test204@test.de</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F205" s="2">
+        <v>12345724</v>
+      </c>
+      <c r="G205" s="2" t="str">
+        <f t="shared" si="62"/>
+        <v>nrna_204</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <f t="shared" si="71"/>
+        <v>205</v>
+      </c>
+      <c r="B206" s="2" t="str">
+        <f t="shared" si="60"/>
+        <v>nrna_205</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D206" s="2" t="str">
+        <f t="shared" si="72"/>
+        <v>test205@test.de</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206" s="2">
+        <v>12345724</v>
+      </c>
+      <c r="G206" s="2" t="str">
+        <f t="shared" si="62"/>
+        <v>nrna_205</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
